--- a/partlist.xlsx
+++ b/partlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wip\ksp-mod-dev\WBIPlaymodeUSI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28E2B623-0BC6-43E1-BC52-5D1A9D9BC4CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9D3DAAE-0B0E-4149-8B3B-440D5E408C88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="62">
   <si>
     <t>List of WBI parts and according USI configuration</t>
   </si>
@@ -181,6 +181,36 @@
   </si>
   <si>
     <t>dedicated LS part</t>
+  </si>
+  <si>
+    <t>Production</t>
+  </si>
+  <si>
+    <t>Agroponics, Cultivator(S)</t>
+  </si>
+  <si>
+    <t>25%/2</t>
+  </si>
+  <si>
+    <t>4m/2</t>
+  </si>
+  <si>
+    <t>MOH:Dolores hab</t>
+  </si>
+  <si>
+    <t>1m/6</t>
+  </si>
+  <si>
+    <t>module without added LS</t>
+  </si>
+  <si>
+    <t>f0.75/1</t>
+  </si>
+  <si>
+    <t>supplies</t>
+  </si>
+  <si>
+    <t>60%/2</t>
   </si>
 </sst>
 </file>
@@ -188,9 +218,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -220,8 +250,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -240,6 +277,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -255,7 +298,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2"/>
@@ -267,11 +310,13 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="20% - Accent5" xfId="1" builtinId="46"/>
@@ -554,10 +599,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -571,15 +616,16 @@
     <col min="8" max="8" width="43.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -597,8 +643,9 @@
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N3" s="6"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -630,12 +677,15 @@
         <v>7</v>
       </c>
       <c r="K4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="1"/>
       <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -663,8 +713,9 @@
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
       <c r="M5" s="10"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N5" s="10"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -694,8 +745,9 @@
       <c r="K6" s="10"/>
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N6" s="10"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -723,8 +775,9 @@
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
       <c r="M7" s="10"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N7" s="10"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -754,8 +807,9 @@
       <c r="K8" s="10"/>
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N8" s="10"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -781,13 +835,16 @@
         <v>33</v>
       </c>
       <c r="J9" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="K9" t="s">
+        <v>53</v>
+      </c>
+      <c r="L9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -810,13 +867,10 @@
         <v>38</v>
       </c>
       <c r="H10" t="s">
-        <v>33</v>
-      </c>
-      <c r="J10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -842,10 +896,10 @@
         <v>33</v>
       </c>
       <c r="I11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -873,63 +927,83 @@
       <c r="I12" t="s">
         <v>34</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13" s="7">
-        <v>0.6875</v>
-      </c>
-      <c r="H13" t="s">
-        <v>47</v>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="13"/>
+      <c r="G13" t="s">
+        <v>56</v>
       </c>
       <c r="I13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="L13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14" s="7">
+        <v>0.6875</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15" s="7">
         <v>1.25</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G15" t="s">
         <v>50</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H15" t="s">
         <v>51</v>
       </c>
-      <c r="J14" t="s">
-        <v>34</v>
+      <c r="J15" t="s">
+        <v>61</v>
+      </c>
+      <c r="L15" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/partlist.xlsx
+++ b/partlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wip\ksp-mod-dev\WBIPlaymodeUSI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9D3DAAE-0B0E-4149-8B3B-440D5E408C88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF19B4B5-5FFC-4B80-A8ED-8DCDBE0513FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="65">
   <si>
     <t>List of WBI parts and according USI configuration</t>
   </si>
@@ -207,10 +207,19 @@
     <t>f0.75/1</t>
   </si>
   <si>
-    <t>supplies</t>
-  </si>
-  <si>
     <t>60%/2</t>
+  </si>
+  <si>
+    <t>todo: configure for LS converter option!</t>
+  </si>
+  <si>
+    <t>todo: supplies as storage option</t>
+  </si>
+  <si>
+    <t>Bigby Crew Module</t>
+  </si>
+  <si>
+    <t>todo: supplies builtin</t>
   </si>
 </sst>
 </file>
@@ -220,7 +229,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -253,6 +262,13 @@
     <font>
       <sz val="11"/>
       <color theme="2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -298,7 +314,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2"/>
@@ -317,6 +333,7 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="20% - Accent5" xfId="1" builtinId="46"/>
@@ -599,10 +616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -803,7 +820,9 @@
         <v>28</v>
       </c>
       <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
+      <c r="J8" s="14" t="s">
+        <v>61</v>
+      </c>
       <c r="K8" s="10"/>
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
@@ -813,61 +832,61 @@
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9" s="7">
-        <v>1.375</v>
-      </c>
-      <c r="G9" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9" t="s">
-        <v>33</v>
-      </c>
-      <c r="J9" t="s">
-        <v>54</v>
-      </c>
-      <c r="K9" t="s">
-        <v>53</v>
-      </c>
-      <c r="L9" t="s">
-        <v>35</v>
-      </c>
+      <c r="B9" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10">
+        <v>4</v>
+      </c>
+      <c r="F9" s="11">
+        <v>2.4750000000000001</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
         <v>31</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10" s="7">
         <v>1.375</v>
       </c>
       <c r="G10" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H10" t="s">
-        <v>58</v>
+        <v>33</v>
+      </c>
+      <c r="J10" t="s">
+        <v>54</v>
+      </c>
+      <c r="K10" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -875,28 +894,25 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E11">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F11" s="7">
-        <v>4</v>
+        <v>1.375</v>
       </c>
       <c r="G11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H11" t="s">
-        <v>33</v>
-      </c>
-      <c r="I11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -904,74 +920,77 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D12" t="s">
         <v>25</v>
       </c>
       <c r="E12">
+        <v>6</v>
+      </c>
+      <c r="F12" s="7">
+        <v>4</v>
+      </c>
+      <c r="G12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
         <v>2</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F13" s="7">
         <v>1.375</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G13" t="s">
         <v>46</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H13" t="s">
         <v>47</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I13" t="s">
         <v>34</v>
-      </c>
-      <c r="L12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="13"/>
-      <c r="G13" t="s">
-        <v>56</v>
-      </c>
-      <c r="I13" t="s">
-        <v>55</v>
       </c>
       <c r="L13" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14" s="7">
-        <v>0.6875</v>
-      </c>
-      <c r="H14" t="s">
-        <v>47</v>
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="13"/>
+      <c r="G14" t="s">
+        <v>56</v>
       </c>
       <c r="I14" t="s">
-        <v>59</v>
+        <v>55</v>
+      </c>
+      <c r="L14" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -979,31 +998,57 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D15" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15" s="7">
+        <v>0.6875</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16" s="7">
         <v>1.25</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G16" t="s">
         <v>50</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H16" t="s">
         <v>51</v>
       </c>
-      <c r="J15" t="s">
-        <v>61</v>
-      </c>
-      <c r="L15" t="s">
+      <c r="J16" t="s">
         <v>60</v>
+      </c>
+      <c r="L16" s="14" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/partlist.xlsx
+++ b/partlist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wip\ksp-mod-dev\WBIPlaymodeUSI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF19B4B5-5FFC-4B80-A8ED-8DCDBE0513FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D15C7970-CD66-40A8-970C-C14A837BC6ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="74">
   <si>
     <t>List of WBI parts and according USI configuration</t>
   </si>
@@ -219,7 +219,34 @@
     <t>Bigby Crew Module</t>
   </si>
   <si>
-    <t>todo: supplies builtin</t>
+    <t>Supplies</t>
+  </si>
+  <si>
+    <t>Backseat</t>
+  </si>
+  <si>
+    <t>WBI_Backseat2</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>wip</t>
+  </si>
+  <si>
+    <t>m = KerbalMonths (add time directly)</t>
+  </si>
+  <si>
+    <t>f = hab factor (multiplier)</t>
+  </si>
+  <si>
+    <t>% = recycle %</t>
+  </si>
+  <si>
+    <t>/n = n kerbal capacity</t>
   </si>
 </sst>
 </file>
@@ -229,7 +256,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -273,8 +300,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -299,6 +354,16 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -309,12 +374,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2"/>
@@ -334,10 +402,18 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="5" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="6">
     <cellStyle name="20% - Accent5" xfId="1" builtinId="46"/>
     <cellStyle name="20% - Accent6" xfId="2" builtinId="50"/>
+    <cellStyle name="Explanatory Text" xfId="5" builtinId="53"/>
+    <cellStyle name="Good" xfId="3" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="4" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -616,10 +692,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -630,19 +706,34 @@
     <col min="4" max="5" width="15.5703125" customWidth="1"/>
     <col min="6" max="6" width="12.7109375" style="7" customWidth="1"/>
     <col min="7" max="7" width="39.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="43.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="43.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J1" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J2" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="K2" s="19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -652,17 +743,18 @@
       <c r="E3" s="5"/>
       <c r="F3" s="8"/>
       <c r="G3" s="5"/>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="5"/>
+      <c r="I3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="6"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O3" s="6"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -684,25 +776,28 @@
       <c r="G4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="1"/>
       <c r="N4" s="1"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O4" s="1"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -722,332 +817,405 @@
         <v>1.5</v>
       </c>
       <c r="G5" s="10"/>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="I5" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="10"/>
       <c r="J5" s="10"/>
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
+      <c r="M5" s="15" t="s">
+        <v>64</v>
+      </c>
       <c r="N5" s="10"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O5" s="10"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>15</v>
       </c>
       <c r="E6" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6" s="11">
-        <v>1.4</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="10" t="s">
+        <v>1.5</v>
+      </c>
+      <c r="G6" s="10"/>
+      <c r="H6" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="I6" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="10"/>
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
       <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
+      <c r="M6" s="15" t="s">
+        <v>64</v>
+      </c>
       <c r="N6" s="10"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O6" s="10"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>15</v>
       </c>
       <c r="E7" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7" s="11">
         <v>1.4</v>
       </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10" t="s">
+      <c r="G7" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="I7" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="10"/>
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O7" s="10"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E8" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8" s="11">
-        <v>1</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="I8" s="10"/>
-      <c r="J8" s="14" t="s">
-        <v>61</v>
-      </c>
+        <v>1.4</v>
+      </c>
+      <c r="G8" s="10"/>
+      <c r="H8" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="10"/>
       <c r="K8" s="10"/>
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O8" s="10"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
+        <v>24</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="E9" s="10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F9" s="11">
-        <v>2.4750000000000001</v>
-      </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="14" t="s">
-        <v>64</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="J9" s="10"/>
+      <c r="K9" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="L9" s="10"/>
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O9" s="10"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10" s="7">
-        <v>1.375</v>
-      </c>
-      <c r="G10" t="s">
-        <v>32</v>
-      </c>
-      <c r="H10" t="s">
-        <v>33</v>
-      </c>
-      <c r="J10" t="s">
-        <v>54</v>
-      </c>
-      <c r="K10" t="s">
-        <v>53</v>
-      </c>
-      <c r="L10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10">
+        <v>4</v>
+      </c>
+      <c r="F10" s="11">
+        <v>2.4750000000000001</v>
+      </c>
+      <c r="G10" s="10"/>
+      <c r="H10" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s">
         <v>31</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11" s="7">
         <v>1.375</v>
       </c>
       <c r="G11" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="I11" t="s">
+        <v>33</v>
+      </c>
+      <c r="K11" t="s">
+        <v>54</v>
+      </c>
+      <c r="L11" t="s">
+        <v>53</v>
+      </c>
+      <c r="M11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E12">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F12" s="7">
-        <v>4</v>
+        <v>1.375</v>
       </c>
       <c r="G12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H12" t="s">
-        <v>33</v>
+        <v>38</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>68</v>
       </c>
       <c r="I12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D13" t="s">
         <v>25</v>
       </c>
       <c r="E13">
+        <v>6</v>
+      </c>
+      <c r="F13" s="7">
+        <v>4</v>
+      </c>
+      <c r="G13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="I13" t="s">
+        <v>33</v>
+      </c>
+      <c r="J13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
         <v>2</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F14" s="7">
         <v>1.375</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G14" t="s">
         <v>46</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H14" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="I14" t="s">
         <v>47</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J14" t="s">
         <v>34</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M14" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="13"/>
-      <c r="G14" t="s">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="13"/>
+      <c r="G15" t="s">
         <v>56</v>
       </c>
-      <c r="I14" t="s">
+      <c r="H15" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="J15" t="s">
         <v>55</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M15" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15" s="7">
-        <v>0.6875</v>
-      </c>
-      <c r="H15" t="s">
-        <v>47</v>
-      </c>
-      <c r="I15" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16" s="7">
+        <v>0.6875</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="I16" t="s">
+        <v>47</v>
+      </c>
+      <c r="J16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17" s="7">
         <v>1.25</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G17" t="s">
         <v>50</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H17" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="I17" t="s">
         <v>51</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K17" t="s">
         <v>60</v>
       </c>
-      <c r="L16" s="14" t="s">
+      <c r="M17" s="14" t="s">
         <v>62</v>
       </c>
     </row>

--- a/partlist.xlsx
+++ b/partlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wip\ksp-mod-dev\WBIPlaymodeUSI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D15C7970-CD66-40A8-970C-C14A837BC6ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EFB8B89-C982-4572-9413-272C1047E487}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="72">
   <si>
     <t>List of WBI parts and according USI configuration</t>
   </si>
@@ -210,12 +210,6 @@
     <t>60%/2</t>
   </si>
   <si>
-    <t>todo: configure for LS converter option!</t>
-  </si>
-  <si>
-    <t>todo: supplies as storage option</t>
-  </si>
-  <si>
     <t>Bigby Crew Module</t>
   </si>
   <si>
@@ -234,9 +228,6 @@
     <t>done</t>
   </si>
   <si>
-    <t>wip</t>
-  </si>
-  <si>
     <t>m = KerbalMonths (add time directly)</t>
   </si>
   <si>
@@ -247,6 +238,9 @@
   </si>
   <si>
     <t>/n = n kerbal capacity</t>
+  </si>
+  <si>
+    <t>option for LS purifier</t>
   </si>
 </sst>
 </file>
@@ -256,7 +250,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -314,13 +308,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -329,7 +316,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -359,11 +346,6 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -374,15 +356,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2"/>
@@ -404,16 +385,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="5"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="5" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="5">
     <cellStyle name="20% - Accent5" xfId="1" builtinId="46"/>
     <cellStyle name="20% - Accent6" xfId="2" builtinId="50"/>
-    <cellStyle name="Explanatory Text" xfId="5" builtinId="53"/>
+    <cellStyle name="Explanatory Text" xfId="4" builtinId="53"/>
     <cellStyle name="Good" xfId="3" builtinId="26"/>
-    <cellStyle name="Neutral" xfId="4" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -695,7 +674,7 @@
   <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -718,19 +697,19 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J2" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="K2" s="18" t="s">
         <v>70</v>
-      </c>
-      <c r="K1" s="18" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J2" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="K2" s="19" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -777,7 +756,7 @@
         <v>19</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>5</v>
@@ -818,7 +797,7 @@
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="16" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I5" s="10" t="s">
         <v>27</v>
@@ -827,7 +806,7 @@
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
       <c r="M5" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="N5" s="10"/>
       <c r="O5" s="10"/>
@@ -837,10 +816,10 @@
         <v>11</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>15</v>
@@ -853,7 +832,7 @@
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="16" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I6" s="10" t="s">
         <v>27</v>
@@ -862,7 +841,7 @@
       <c r="K6" s="10"/>
       <c r="L6" s="10"/>
       <c r="M6" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="N6" s="10"/>
       <c r="O6" s="10"/>
@@ -890,7 +869,7 @@
         <v>20</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I7" s="10" t="s">
         <v>27</v>
@@ -923,7 +902,7 @@
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="16" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I8" s="10" t="s">
         <v>27</v>
@@ -957,15 +936,15 @@
       <c r="G9" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="17" t="s">
-        <v>69</v>
+      <c r="H9" s="16" t="s">
+        <v>66</v>
       </c>
       <c r="I9" s="10" t="s">
         <v>28</v>
       </c>
       <c r="J9" s="10"/>
-      <c r="K9" s="14" t="s">
-        <v>61</v>
+      <c r="K9" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
@@ -977,7 +956,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
@@ -989,14 +968,14 @@
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="16" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
       <c r="K10" s="14"/>
       <c r="L10" s="10"/>
       <c r="M10" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="N10" s="10"/>
       <c r="O10" s="10"/>
@@ -1024,7 +1003,7 @@
         <v>32</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I11" t="s">
         <v>33</v>
@@ -1062,7 +1041,7 @@
         <v>38</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I12" t="s">
         <v>58</v>
@@ -1091,7 +1070,7 @@
         <v>41</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I13" t="s">
         <v>33</v>
@@ -1123,7 +1102,7 @@
         <v>46</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I14" t="s">
         <v>47</v>
@@ -1146,7 +1125,7 @@
         <v>56</v>
       </c>
       <c r="H15" s="16" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J15" t="s">
         <v>55</v>
@@ -1175,7 +1154,7 @@
         <v>0.6875</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I16" t="s">
         <v>47</v>
@@ -1206,8 +1185,8 @@
       <c r="G17" t="s">
         <v>50</v>
       </c>
-      <c r="H17" s="17" t="s">
-        <v>69</v>
+      <c r="H17" s="16" t="s">
+        <v>66</v>
       </c>
       <c r="I17" t="s">
         <v>51</v>
@@ -1215,7 +1194,7 @@
       <c r="K17" t="s">
         <v>60</v>
       </c>
-      <c r="M17" s="14" t="s">
+      <c r="M17" s="15" t="s">
         <v>62</v>
       </c>
     </row>

--- a/partlist.xlsx
+++ b/partlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wip\ksp-mod-dev\WBIPlaymodeUSI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EFB8B89-C982-4572-9413-272C1047E487}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{257A39AE-7CF5-47EF-AD6B-5C38C9F6F712}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="90">
   <si>
     <t>List of WBI parts and according USI configuration</t>
   </si>
@@ -108,12 +108,6 @@
     <t>WBIOmniConverter:lab;hab</t>
   </si>
   <si>
-    <t>command pod with no additional LS provisions</t>
-  </si>
-  <si>
-    <t>utility module with no additional LS provisions</t>
-  </si>
-  <si>
     <t>WBI_MOBL18</t>
   </si>
   <si>
@@ -241,6 +235,66 @@
   </si>
   <si>
     <t>option for LS purifier</t>
+  </si>
+  <si>
+    <t>Airlock Module</t>
+  </si>
+  <si>
+    <t>WBI_AirlockModule</t>
+  </si>
+  <si>
+    <t>Buffalo</t>
+  </si>
+  <si>
+    <t>WBI_BuffaloAirlock</t>
+  </si>
+  <si>
+    <t>Buffalo Airlock Module</t>
+  </si>
+  <si>
+    <t>wip</t>
+  </si>
+  <si>
+    <t>no additional LS functions</t>
+  </si>
+  <si>
+    <t>Supplies 50</t>
+  </si>
+  <si>
+    <t>WBI_CrewCab</t>
+  </si>
+  <si>
+    <t>Buffalo Crew Cabin</t>
+  </si>
+  <si>
+    <t>2m/2</t>
+  </si>
+  <si>
+    <t>WBI_LongPassengerCab</t>
+  </si>
+  <si>
+    <t>Long Passenger Cab</t>
+  </si>
+  <si>
+    <t>2m/4</t>
+  </si>
+  <si>
+    <t>WBI_ShortPassengerCab</t>
+  </si>
+  <si>
+    <t>Short Passenger Cab</t>
+  </si>
+  <si>
+    <t>1m/2</t>
+  </si>
+  <si>
+    <t>wbiWagonHab</t>
+  </si>
+  <si>
+    <t>Wagon Hab</t>
+  </si>
+  <si>
+    <t>1m/4</t>
   </si>
 </sst>
 </file>
@@ -250,7 +304,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -315,8 +369,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -346,6 +407,11 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -356,14 +422,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2"/>
@@ -387,12 +454,14 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="5"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="20% - Accent5" xfId="1" builtinId="46"/>
     <cellStyle name="20% - Accent6" xfId="2" builtinId="50"/>
     <cellStyle name="Explanatory Text" xfId="4" builtinId="53"/>
     <cellStyle name="Good" xfId="3" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="5" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -671,10 +740,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O17"/>
+  <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -698,18 +767,18 @@
         <v>0</v>
       </c>
       <c r="J1" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="K1" s="17" t="s">
         <v>67</v>
-      </c>
-      <c r="K1" s="17" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J2" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="K2" s="18" t="s">
         <v>68</v>
-      </c>
-      <c r="K2" s="18" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -756,7 +825,7 @@
         <v>19</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>5</v>
@@ -768,7 +837,7 @@
         <v>7</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>8</v>
@@ -797,16 +866,16 @@
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="J5" s="10"/>
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
       <c r="M5" s="15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="N5" s="10"/>
       <c r="O5" s="10"/>
@@ -816,10 +885,10 @@
         <v>11</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>15</v>
@@ -832,16 +901,16 @@
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
       <c r="L6" s="10"/>
       <c r="M6" s="15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="N6" s="10"/>
       <c r="O6" s="10"/>
@@ -869,10 +938,10 @@
         <v>20</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
@@ -902,10 +971,10 @@
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
@@ -937,14 +1006,14 @@
         <v>26</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="J9" s="10"/>
       <c r="K9" s="15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
@@ -956,7 +1025,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
@@ -968,14 +1037,16 @@
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="I10" s="10"/>
+        <v>64</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>76</v>
+      </c>
       <c r="J10" s="10"/>
       <c r="K10" s="14"/>
       <c r="L10" s="10"/>
       <c r="M10" s="15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="N10" s="10"/>
       <c r="O10" s="10"/>
@@ -984,67 +1055,73 @@
       <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11" s="7">
-        <v>1.375</v>
-      </c>
-      <c r="G11" t="s">
-        <v>32</v>
-      </c>
+      <c r="B11" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="10">
+        <v>1</v>
+      </c>
+      <c r="F11" s="11">
+        <v>1</v>
+      </c>
+      <c r="G11" s="10"/>
       <c r="H11" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="I11" t="s">
-        <v>33</v>
-      </c>
-      <c r="K11" t="s">
-        <v>54</v>
-      </c>
-      <c r="L11" t="s">
-        <v>53</v>
-      </c>
-      <c r="M11" t="s">
-        <v>35</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="J11" s="10"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12" s="7">
         <v>1.375</v>
       </c>
       <c r="G12" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I12" t="s">
-        <v>58</v>
+        <v>31</v>
+      </c>
+      <c r="K12" t="s">
+        <v>52</v>
+      </c>
+      <c r="L12" t="s">
+        <v>51</v>
+      </c>
+      <c r="M12" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -1052,31 +1129,28 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E13">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F13" s="7">
-        <v>4</v>
+        <v>1.375</v>
       </c>
       <c r="G13" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I13" t="s">
-        <v>33</v>
-      </c>
-      <c r="J13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -1084,83 +1158,86 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D14" t="s">
         <v>25</v>
       </c>
       <c r="E14">
+        <v>6</v>
+      </c>
+      <c r="F14" s="7">
+        <v>4</v>
+      </c>
+      <c r="G14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="I14" t="s">
+        <v>31</v>
+      </c>
+      <c r="J14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15">
         <v>2</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F15" s="7">
         <v>1.375</v>
       </c>
-      <c r="G14" t="s">
-        <v>46</v>
-      </c>
-      <c r="H14" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="I14" t="s">
-        <v>47</v>
-      </c>
-      <c r="J14" t="s">
-        <v>34</v>
-      </c>
-      <c r="M14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="13"/>
       <c r="G15" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="H15" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
+      </c>
+      <c r="I15" t="s">
+        <v>45</v>
       </c>
       <c r="J15" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="M15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16" s="7">
-        <v>0.6875</v>
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="13"/>
+      <c r="G16" t="s">
+        <v>54</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="I16" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="J16" t="s">
-        <v>59</v>
+        <v>53</v>
+      </c>
+      <c r="M16" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -1168,34 +1245,208 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17" s="7">
+        <v>0.6875</v>
+      </c>
+      <c r="H17" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="I17" t="s">
+        <v>45</v>
+      </c>
+      <c r="J17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18" s="7">
         <v>1.25</v>
       </c>
-      <c r="G17" t="s">
-        <v>50</v>
-      </c>
-      <c r="H17" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="I17" t="s">
-        <v>51</v>
-      </c>
-      <c r="K17" t="s">
+      <c r="G18" t="s">
+        <v>48</v>
+      </c>
+      <c r="H18" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="I18" t="s">
+        <v>49</v>
+      </c>
+      <c r="K18" t="s">
+        <v>58</v>
+      </c>
+      <c r="M18" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="M17" s="15" t="s">
-        <v>62</v>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="H19" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="M19" s="15" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20" s="7">
+        <v>0.85</v>
+      </c>
+      <c r="H20" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="I20" t="s">
+        <v>45</v>
+      </c>
+      <c r="J20" s="15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21">
+        <v>4</v>
+      </c>
+      <c r="F21" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="H21" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="I21" t="s">
+        <v>45</v>
+      </c>
+      <c r="J21" s="15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="H22" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="I22" t="s">
+        <v>45</v>
+      </c>
+      <c r="J22" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" t="s">
+        <v>87</v>
+      </c>
+      <c r="D23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23">
+        <v>4</v>
+      </c>
+      <c r="F23" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="H23" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="I23" t="s">
+        <v>45</v>
+      </c>
+      <c r="J23" s="15" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/partlist.xlsx
+++ b/partlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wip\ksp-mod-dev\WBIPlaymodeUSI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{257A39AE-7CF5-47EF-AD6B-5C38C9F6F712}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{478A8E47-A31D-4DF4-A3F5-1FB7340CE38E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="89">
   <si>
     <t>List of WBI parts and according USI configuration</t>
   </si>
@@ -250,9 +250,6 @@
   </si>
   <si>
     <t>Buffalo Airlock Module</t>
-  </si>
-  <si>
-    <t>wip</t>
   </si>
   <si>
     <t>no additional LS functions</t>
@@ -304,7 +301,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -369,15 +366,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -407,11 +397,6 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -422,15 +407,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2"/>
@@ -454,14 +438,12 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="5"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="5">
     <cellStyle name="20% - Accent5" xfId="1" builtinId="46"/>
     <cellStyle name="20% - Accent6" xfId="2" builtinId="50"/>
     <cellStyle name="Explanatory Text" xfId="4" builtinId="53"/>
     <cellStyle name="Good" xfId="3" builtinId="26"/>
-    <cellStyle name="Neutral" xfId="5" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -869,7 +851,7 @@
         <v>64</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J5" s="10"/>
       <c r="K5" s="10"/>
@@ -904,7 +886,7 @@
         <v>64</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
@@ -941,7 +923,7 @@
         <v>64</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
@@ -974,7 +956,7 @@
         <v>64</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
@@ -1009,13 +991,12 @@
         <v>64</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J9" s="10"/>
-      <c r="K9" s="15" t="s">
+      <c r="L9" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="L9" s="10"/>
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
       <c r="O9" s="10"/>
@@ -1040,7 +1021,7 @@
         <v>64</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J10" s="10"/>
       <c r="K10" s="14"/>
@@ -1075,7 +1056,7 @@
         <v>64</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J11" s="10"/>
       <c r="K11" s="14"/>
@@ -1323,14 +1304,14 @@
       <c r="F19" s="7">
         <v>0.5</v>
       </c>
-      <c r="H19" s="19" t="s">
+      <c r="H19" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="I19" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="I19" s="10" t="s">
+      <c r="M19" s="15" t="s">
         <v>76</v>
-      </c>
-      <c r="M19" s="15" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -1338,10 +1319,10 @@
         <v>72</v>
       </c>
       <c r="B20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D20" t="s">
         <v>25</v>
@@ -1352,14 +1333,14 @@
       <c r="F20" s="7">
         <v>0.85</v>
       </c>
-      <c r="H20" s="19" t="s">
-        <v>75</v>
+      <c r="H20" s="16" t="s">
+        <v>64</v>
       </c>
       <c r="I20" t="s">
         <v>45</v>
       </c>
       <c r="J20" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -1367,10 +1348,10 @@
         <v>72</v>
       </c>
       <c r="B21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D21" t="s">
         <v>25</v>
@@ -1381,14 +1362,14 @@
       <c r="F21" s="7">
         <v>0.8</v>
       </c>
-      <c r="H21" s="19" t="s">
-        <v>75</v>
+      <c r="H21" s="16" t="s">
+        <v>64</v>
       </c>
       <c r="I21" t="s">
         <v>45</v>
       </c>
       <c r="J21" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -1396,10 +1377,10 @@
         <v>72</v>
       </c>
       <c r="B22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D22" t="s">
         <v>25</v>
@@ -1410,14 +1391,14 @@
       <c r="F22" s="7">
         <v>0.4</v>
       </c>
-      <c r="H22" s="19" t="s">
-        <v>75</v>
+      <c r="H22" s="16" t="s">
+        <v>64</v>
       </c>
       <c r="I22" t="s">
         <v>45</v>
       </c>
       <c r="J22" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -1425,10 +1406,10 @@
         <v>72</v>
       </c>
       <c r="B23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D23" t="s">
         <v>25</v>
@@ -1439,14 +1420,14 @@
       <c r="F23" s="7">
         <v>0.75</v>
       </c>
-      <c r="H23" s="19" t="s">
-        <v>75</v>
+      <c r="H23" s="16" t="s">
+        <v>64</v>
       </c>
       <c r="I23" t="s">
         <v>45</v>
       </c>
       <c r="J23" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/partlist.xlsx
+++ b/partlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wip\ksp-mod-dev\WBIPlaymodeUSI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{478A8E47-A31D-4DF4-A3F5-1FB7340CE38E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C385D4-4792-45A3-882E-81A62836270E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="139">
   <si>
     <t>List of WBI parts and according USI configuration</t>
   </si>
@@ -255,9 +255,6 @@
     <t>no additional LS functions</t>
   </si>
   <si>
-    <t>Supplies 50</t>
-  </si>
-  <si>
     <t>WBI_CrewCab</t>
   </si>
   <si>
@@ -292,6 +289,159 @@
   </si>
   <si>
     <t>1m/4</t>
+  </si>
+  <si>
+    <t>DSEV</t>
+  </si>
+  <si>
+    <t>wbiAutomatedConstructionHangar</t>
+  </si>
+  <si>
+    <t>Automated Construction Hangar</t>
+  </si>
+  <si>
+    <t>ELLaunchpad</t>
+  </si>
+  <si>
+    <t>todo</t>
+  </si>
+  <si>
+    <t>nautilusAirlock</t>
+  </si>
+  <si>
+    <t>Nautilus Airlock</t>
+  </si>
+  <si>
+    <t>wbiNautilusCentrifuge</t>
+  </si>
+  <si>
+    <t>Nautilus Centrifuge</t>
+  </si>
+  <si>
+    <t>Efficiency Part</t>
+  </si>
+  <si>
+    <t>x, tbd</t>
+  </si>
+  <si>
+    <t>tbd</t>
+  </si>
+  <si>
+    <t>WBI_D2Lab</t>
+  </si>
+  <si>
+    <t>D2 Science Module</t>
+  </si>
+  <si>
+    <t>WBIMultipurposeLab:D2LAB;PATH_SCIENCE</t>
+  </si>
+  <si>
+    <t>50%/4</t>
+  </si>
+  <si>
+    <t>WBI_D2Centrifuge</t>
+  </si>
+  <si>
+    <t>D2 Centrifuge</t>
+  </si>
+  <si>
+    <t>12m/16</t>
+  </si>
+  <si>
+    <t>24m/12</t>
+  </si>
+  <si>
+    <t>WBIMultipurposeLab:CENTRIFUGE;PATH_HABITATION;PATH_SCIENCE</t>
+  </si>
+  <si>
+    <t>WBI_D2CryoShelter</t>
+  </si>
+  <si>
+    <t>D2 Cryo Shelter</t>
+  </si>
+  <si>
+    <t>f1.0/12</t>
+  </si>
+  <si>
+    <t>WBI_D2Greenhouse</t>
+  </si>
+  <si>
+    <t>D2 Greenhouse Module</t>
+  </si>
+  <si>
+    <t>Agroponics</t>
+  </si>
+  <si>
+    <t>WBI_D2Hab</t>
+  </si>
+  <si>
+    <t>D2 Habitat Module</t>
+  </si>
+  <si>
+    <t>WBIMultipurposeHab:D2HAB;PATH_HABITATION</t>
+  </si>
+  <si>
+    <t>12m/6</t>
+  </si>
+  <si>
+    <t>WBI_D2Office</t>
+  </si>
+  <si>
+    <t>D2 Briefing Room</t>
+  </si>
+  <si>
+    <t>f0.5/10</t>
+  </si>
+  <si>
+    <t>WBI_HomesteadMk3</t>
+  </si>
+  <si>
+    <t>Homestead Mk3</t>
+  </si>
+  <si>
+    <t>WBIMultipurposeLab:HOMESTEAD;PATH_HABITATION;PATH_SCIENCE;ROCKHOUND;PATH_INDUSTRY;STORAGE_TEMPLATE</t>
+  </si>
+  <si>
+    <t>wbiMeatLocker</t>
+  </si>
+  <si>
+    <t>Meat Locker CryoShelter</t>
+  </si>
+  <si>
+    <t>f1.0/4</t>
+  </si>
+  <si>
+    <t>quantumLeapAirlock</t>
+  </si>
+  <si>
+    <t>Quantum Leap Airlock</t>
+  </si>
+  <si>
+    <t>TranquilityHab</t>
+  </si>
+  <si>
+    <t>Tranquility Mk2 Habitat</t>
+  </si>
+  <si>
+    <t>WBIConvertibleMPL:TRANQ;PATH_HABITATION</t>
+  </si>
+  <si>
+    <t>wbiZenGreenhouse</t>
+  </si>
+  <si>
+    <t>Zen Mk2 Greenhouse</t>
+  </si>
+  <si>
+    <t>global construction module</t>
+  </si>
+  <si>
+    <t>wip</t>
+  </si>
+  <si>
+    <t>WBIMultipurposeLab:D2HAB;PATH_HABITATION;D2LAB;PATH_SCIENCE</t>
+  </si>
+  <si>
+    <t>50%/2</t>
   </si>
 </sst>
 </file>
@@ -301,7 +451,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -366,8 +516,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -397,6 +561,16 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -407,14 +581,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2"/>
@@ -438,12 +614,16 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="6"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="7">
     <cellStyle name="20% - Accent5" xfId="1" builtinId="46"/>
     <cellStyle name="20% - Accent6" xfId="2" builtinId="50"/>
+    <cellStyle name="Bad" xfId="5" builtinId="27"/>
     <cellStyle name="Explanatory Text" xfId="4" builtinId="53"/>
     <cellStyle name="Good" xfId="3" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="6" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -722,10 +902,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O23"/>
+  <dimension ref="A1:O37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -737,11 +917,12 @@
     <col min="6" max="6" width="12.7109375" style="7" customWidth="1"/>
     <col min="7" max="7" width="39.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="43.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -824,7 +1005,9 @@
       <c r="M4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N4" s="1"/>
+      <c r="N4" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="O4" s="1"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -1104,6 +1287,9 @@
       <c r="M12" t="s">
         <v>33</v>
       </c>
+      <c r="N12" s="19" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -1133,6 +1319,9 @@
       <c r="I13" t="s">
         <v>56</v>
       </c>
+      <c r="N13" s="19" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -1165,6 +1354,9 @@
       <c r="J14" t="s">
         <v>55</v>
       </c>
+      <c r="N14" s="19" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -1199,6 +1391,9 @@
       </c>
       <c r="M15" t="s">
         <v>33</v>
+      </c>
+      <c r="N15" s="19" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -1221,7 +1416,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -1250,7 +1445,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -1285,7 +1480,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>72</v>
       </c>
@@ -1311,18 +1506,18 @@
         <v>75</v>
       </c>
       <c r="M19" s="15" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>72</v>
       </c>
       <c r="B20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D20" t="s">
         <v>25</v>
@@ -1340,18 +1535,18 @@
         <v>45</v>
       </c>
       <c r="J20" s="15" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>72</v>
       </c>
       <c r="B21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D21" t="s">
         <v>25</v>
@@ -1369,18 +1564,18 @@
         <v>45</v>
       </c>
       <c r="J21" s="15" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>72</v>
       </c>
       <c r="B22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D22" t="s">
         <v>25</v>
@@ -1398,18 +1593,18 @@
         <v>45</v>
       </c>
       <c r="J22" s="15" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>72</v>
       </c>
       <c r="B23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D23" t="s">
         <v>25</v>
@@ -1427,7 +1622,468 @@
         <v>45</v>
       </c>
       <c r="J23" s="15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>88</v>
+      </c>
+      <c r="B24" t="s">
+        <v>90</v>
+      </c>
+      <c r="C24" t="s">
+        <v>89</v>
+      </c>
+      <c r="D24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24" s="7">
+        <v>5</v>
+      </c>
+      <c r="G24" t="s">
+        <v>91</v>
+      </c>
+      <c r="H24" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="L24" s="14" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>88</v>
+      </c>
+      <c r="B25" t="s">
+        <v>94</v>
+      </c>
+      <c r="C25" t="s">
+        <v>93</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="H25" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="M25" s="15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>88</v>
+      </c>
+      <c r="B26" t="s">
+        <v>96</v>
+      </c>
+      <c r="C26" t="s">
+        <v>95</v>
+      </c>
+      <c r="D26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26">
+        <v>16</v>
+      </c>
+      <c r="F26" s="7">
+        <v>7.5</v>
+      </c>
+      <c r="G26" t="s">
+        <v>137</v>
+      </c>
+      <c r="H26" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="I26" t="s">
+        <v>45</v>
+      </c>
+      <c r="J26" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="K26" s="14"/>
+      <c r="N26" s="14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>88</v>
+      </c>
+      <c r="B27" t="s">
+        <v>101</v>
+      </c>
+      <c r="C27" t="s">
+        <v>100</v>
+      </c>
+      <c r="D27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27">
+        <v>4</v>
+      </c>
+      <c r="F27" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="G27" t="s">
+        <v>102</v>
+      </c>
+      <c r="H27" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="I27" t="s">
+        <v>31</v>
+      </c>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="N27" s="14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>88</v>
+      </c>
+      <c r="B28" t="s">
+        <v>105</v>
+      </c>
+      <c r="C28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D28" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28">
+        <v>12</v>
+      </c>
+      <c r="F28" s="7">
+        <v>15</v>
+      </c>
+      <c r="G28" t="s">
+        <v>108</v>
+      </c>
+      <c r="H28" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="I28" t="s">
+        <v>45</v>
+      </c>
+      <c r="J28" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="K28" s="14"/>
+      <c r="N28" s="14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>88</v>
+      </c>
+      <c r="B29" t="s">
+        <v>110</v>
+      </c>
+      <c r="C29" t="s">
+        <v>109</v>
+      </c>
+      <c r="D29" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29">
+        <v>12</v>
+      </c>
+      <c r="F29" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="H29" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="I29" t="s">
+        <v>45</v>
+      </c>
+      <c r="J29" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="N29" s="14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>88</v>
+      </c>
+      <c r="B30" t="s">
+        <v>113</v>
+      </c>
+      <c r="C30" t="s">
+        <v>112</v>
+      </c>
+      <c r="D30" t="s">
+        <v>25</v>
+      </c>
+      <c r="E30">
+        <v>4</v>
+      </c>
+      <c r="F30" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="H30" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="I30" t="s">
+        <v>31</v>
+      </c>
+      <c r="J30" s="14"/>
+      <c r="K30" t="s">
+        <v>103</v>
+      </c>
+      <c r="L30" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="M30" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="N30" s="14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>88</v>
+      </c>
+      <c r="B31" t="s">
+        <v>116</v>
+      </c>
+      <c r="C31" t="s">
+        <v>115</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>6</v>
+      </c>
+      <c r="F31" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="G31" t="s">
+        <v>117</v>
+      </c>
+      <c r="H31" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="I31" t="s">
+        <v>45</v>
+      </c>
+      <c r="J31" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="N31" s="14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>88</v>
+      </c>
+      <c r="B32" t="s">
+        <v>120</v>
+      </c>
+      <c r="C32" t="s">
+        <v>119</v>
+      </c>
+      <c r="D32" t="s">
+        <v>25</v>
+      </c>
+      <c r="E32">
+        <v>10</v>
+      </c>
+      <c r="F32" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="G32" t="s">
+        <v>117</v>
+      </c>
+      <c r="H32" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="I32" t="s">
+        <v>45</v>
+      </c>
+      <c r="J32" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="N32" s="14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>88</v>
+      </c>
+      <c r="B33" t="s">
+        <v>123</v>
+      </c>
+      <c r="C33" t="s">
+        <v>122</v>
+      </c>
+      <c r="D33" t="s">
+        <v>25</v>
+      </c>
+      <c r="E33">
+        <v>7</v>
+      </c>
+      <c r="F33" s="7">
+        <v>3.25</v>
+      </c>
+      <c r="G33" t="s">
+        <v>124</v>
+      </c>
+      <c r="H33" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="I33" t="s">
+        <v>31</v>
+      </c>
+      <c r="N33" s="14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>88</v>
+      </c>
+      <c r="B34" t="s">
+        <v>126</v>
+      </c>
+      <c r="C34" t="s">
+        <v>125</v>
+      </c>
+      <c r="D34" t="s">
+        <v>25</v>
+      </c>
+      <c r="E34">
+        <v>4</v>
+      </c>
+      <c r="F34" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="H34" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="I34" t="s">
+        <v>45</v>
+      </c>
+      <c r="J34" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="N34" s="14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>88</v>
+      </c>
+      <c r="B35" t="s">
+        <v>129</v>
+      </c>
+      <c r="C35" t="s">
+        <v>128</v>
+      </c>
+      <c r="D35" t="s">
+        <v>25</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35" s="7">
+        <v>1.25</v>
+      </c>
+      <c r="H35" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="M35" s="15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>88</v>
+      </c>
+      <c r="B36" t="s">
+        <v>131</v>
+      </c>
+      <c r="C36" t="s">
+        <v>130</v>
+      </c>
+      <c r="D36" t="s">
+        <v>25</v>
+      </c>
+      <c r="E36">
+        <v>4</v>
+      </c>
+      <c r="F36" s="7">
+        <v>1</v>
+      </c>
+      <c r="G36" t="s">
+        <v>132</v>
+      </c>
+      <c r="H36" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="I36" t="s">
+        <v>45</v>
+      </c>
+      <c r="J36" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>88</v>
+      </c>
+      <c r="B37" t="s">
+        <v>134</v>
+      </c>
+      <c r="C37" t="s">
+        <v>133</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="H37" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="K37" t="s">
+        <v>138</v>
+      </c>
+      <c r="L37" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="M37" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="N37" s="14" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/partlist.xlsx
+++ b/partlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wip\ksp-mod-dev\WBIPlaymodeUSI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C385D4-4792-45A3-882E-81A62836270E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A27B05A-D47F-4386-A51E-1A40433BF271}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="138">
   <si>
     <t>List of WBI parts and according USI configuration</t>
   </si>
@@ -433,9 +433,6 @@
   </si>
   <si>
     <t>global construction module</t>
-  </si>
-  <si>
-    <t>wip</t>
   </si>
   <si>
     <t>WBIMultipurposeLab:D2HAB;PATH_HABITATION;D2LAB;PATH_SCIENCE</t>
@@ -451,7 +448,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -523,15 +520,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -566,11 +556,6 @@
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -581,16 +566,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2"/>
@@ -615,15 +599,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" quotePrefix="1"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="5"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="6"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="6">
     <cellStyle name="20% - Accent5" xfId="1" builtinId="46"/>
     <cellStyle name="20% - Accent6" xfId="2" builtinId="50"/>
     <cellStyle name="Bad" xfId="5" builtinId="27"/>
     <cellStyle name="Explanatory Text" xfId="4" builtinId="53"/>
     <cellStyle name="Good" xfId="3" builtinId="26"/>
-    <cellStyle name="Neutral" xfId="6" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -902,10 +884,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O37"/>
+  <dimension ref="A1:O43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1673,8 +1655,8 @@
       <c r="F25" s="7">
         <v>1.5</v>
       </c>
-      <c r="H25" s="20" t="s">
-        <v>136</v>
+      <c r="H25" s="16" t="s">
+        <v>64</v>
       </c>
       <c r="M25" s="15" t="s">
         <v>60</v>
@@ -1700,15 +1682,15 @@
         <v>7.5</v>
       </c>
       <c r="G26" t="s">
-        <v>137</v>
-      </c>
-      <c r="H26" s="19" t="s">
-        <v>92</v>
+        <v>136</v>
+      </c>
+      <c r="H26" s="16" t="s">
+        <v>64</v>
       </c>
       <c r="I26" t="s">
         <v>45</v>
       </c>
-      <c r="J26" s="14" t="s">
+      <c r="J26" s="15" t="s">
         <v>106</v>
       </c>
       <c r="K26" s="14"/>
@@ -1753,50 +1735,26 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>88</v>
-      </c>
-      <c r="B28" t="s">
-        <v>105</v>
-      </c>
-      <c r="C28" t="s">
-        <v>104</v>
-      </c>
-      <c r="D28" t="s">
-        <v>25</v>
-      </c>
-      <c r="E28">
-        <v>12</v>
-      </c>
-      <c r="F28" s="7">
-        <v>15</v>
-      </c>
-      <c r="G28" t="s">
-        <v>108</v>
-      </c>
-      <c r="H28" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="I28" t="s">
-        <v>45</v>
-      </c>
-      <c r="J28" s="14" t="s">
-        <v>107</v>
-      </c>
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="13"/>
+      <c r="H28" s="19"/>
+      <c r="J28" s="14"/>
       <c r="K28" s="14"/>
-      <c r="N28" s="14" t="s">
-        <v>98</v>
-      </c>
+      <c r="N28" s="14"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>88</v>
       </c>
       <c r="B29" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C29" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D29" t="s">
         <v>25</v>
@@ -1805,90 +1763,64 @@
         <v>12</v>
       </c>
       <c r="F29" s="7">
-        <v>3.5</v>
-      </c>
-      <c r="H29" s="20" t="s">
-        <v>136</v>
+        <v>15</v>
+      </c>
+      <c r="G29" t="s">
+        <v>108</v>
+      </c>
+      <c r="H29" s="16" t="s">
+        <v>64</v>
       </c>
       <c r="I29" t="s">
         <v>45</v>
       </c>
       <c r="J29" s="15" t="s">
-        <v>111</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="K29" s="14"/>
       <c r="N29" s="14" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>88</v>
-      </c>
-      <c r="B30" t="s">
-        <v>113</v>
-      </c>
-      <c r="C30" t="s">
-        <v>112</v>
-      </c>
-      <c r="D30" t="s">
-        <v>25</v>
-      </c>
-      <c r="E30">
-        <v>4</v>
-      </c>
-      <c r="F30" s="7">
-        <v>3.5</v>
-      </c>
-      <c r="H30" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="I30" t="s">
-        <v>31</v>
-      </c>
+      <c r="A30" s="12"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="13"/>
+      <c r="H30" s="19"/>
       <c r="J30" s="14"/>
-      <c r="K30" t="s">
-        <v>103</v>
-      </c>
-      <c r="L30" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="M30" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="N30" s="14" t="s">
-        <v>98</v>
-      </c>
+      <c r="K30" s="14"/>
+      <c r="N30" s="14"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>88</v>
       </c>
       <c r="B31" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C31" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D31" t="s">
         <v>25</v>
       </c>
       <c r="E31">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F31" s="7">
         <v>3.5</v>
       </c>
-      <c r="G31" t="s">
-        <v>117</v>
-      </c>
-      <c r="H31" s="19" t="s">
-        <v>92</v>
+      <c r="H31" s="16" t="s">
+        <v>64</v>
       </c>
       <c r="I31" t="s">
         <v>45</v>
       </c>
-      <c r="J31" s="14" t="s">
-        <v>118</v>
+      <c r="J31" s="15" t="s">
+        <v>111</v>
       </c>
       <c r="N31" s="14" t="s">
         <v>98</v>
@@ -1899,31 +1831,35 @@
         <v>88</v>
       </c>
       <c r="B32" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C32" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D32" t="s">
         <v>25</v>
       </c>
       <c r="E32">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F32" s="7">
         <v>3.5</v>
       </c>
-      <c r="G32" t="s">
-        <v>117</v>
-      </c>
-      <c r="H32" s="19" t="s">
-        <v>92</v>
+      <c r="H32" s="16" t="s">
+        <v>64</v>
       </c>
       <c r="I32" t="s">
-        <v>45</v>
-      </c>
-      <c r="J32" s="14" t="s">
-        <v>121</v>
+        <v>31</v>
+      </c>
+      <c r="J32" s="14"/>
+      <c r="K32" t="s">
+        <v>103</v>
+      </c>
+      <c r="L32" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="M32" s="15" t="s">
+        <v>33</v>
       </c>
       <c r="N32" s="14" t="s">
         <v>98</v>
@@ -1934,155 +1870,267 @@
         <v>88</v>
       </c>
       <c r="B33" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C33" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D33" t="s">
         <v>25</v>
       </c>
       <c r="E33">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F33" s="7">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="G33" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="H33" s="19" t="s">
         <v>92</v>
       </c>
       <c r="I33" t="s">
-        <v>31</v>
+        <v>45</v>
+      </c>
+      <c r="J33" s="14" t="s">
+        <v>118</v>
       </c>
       <c r="N33" s="14" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>88</v>
-      </c>
-      <c r="B34" t="s">
-        <v>126</v>
-      </c>
-      <c r="C34" t="s">
-        <v>125</v>
-      </c>
-      <c r="D34" t="s">
-        <v>25</v>
-      </c>
-      <c r="E34">
-        <v>4</v>
-      </c>
-      <c r="F34" s="7">
-        <v>2.5</v>
-      </c>
-      <c r="H34" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="I34" t="s">
-        <v>45</v>
-      </c>
-      <c r="J34" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="N34" s="14" t="s">
-        <v>98</v>
-      </c>
+      <c r="A34" s="12"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="13"/>
+      <c r="H34" s="19"/>
+      <c r="J34" s="14"/>
+      <c r="N34" s="14"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>88</v>
       </c>
       <c r="B35" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="C35" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="D35" t="s">
         <v>25</v>
       </c>
       <c r="E35">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F35" s="7">
-        <v>1.25</v>
-      </c>
-      <c r="H35" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="M35" s="15" t="s">
-        <v>60</v>
+        <v>3.5</v>
+      </c>
+      <c r="G35" t="s">
+        <v>117</v>
+      </c>
+      <c r="H35" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="I35" t="s">
+        <v>45</v>
+      </c>
+      <c r="J35" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="N35" s="14" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>88</v>
-      </c>
-      <c r="B36" t="s">
-        <v>131</v>
-      </c>
-      <c r="C36" t="s">
-        <v>130</v>
-      </c>
-      <c r="D36" t="s">
-        <v>25</v>
-      </c>
-      <c r="E36">
-        <v>4</v>
-      </c>
-      <c r="F36" s="7">
-        <v>1</v>
-      </c>
-      <c r="G36" t="s">
-        <v>132</v>
-      </c>
-      <c r="H36" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="I36" t="s">
-        <v>45</v>
-      </c>
-      <c r="J36" s="14" t="s">
-        <v>99</v>
-      </c>
+      <c r="A36" s="12"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="13"/>
+      <c r="H36" s="19"/>
+      <c r="J36" s="14"/>
+      <c r="N36" s="14"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>88</v>
       </c>
       <c r="B37" t="s">
+        <v>123</v>
+      </c>
+      <c r="C37" t="s">
+        <v>122</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>7</v>
+      </c>
+      <c r="F37" s="7">
+        <v>3.25</v>
+      </c>
+      <c r="G37" t="s">
+        <v>124</v>
+      </c>
+      <c r="H37" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="I37" t="s">
+        <v>31</v>
+      </c>
+      <c r="N37" s="14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" s="12"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="13"/>
+      <c r="H38" s="19"/>
+      <c r="N38" s="14"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>88</v>
+      </c>
+      <c r="B39" t="s">
+        <v>126</v>
+      </c>
+      <c r="C39" t="s">
+        <v>125</v>
+      </c>
+      <c r="D39" t="s">
+        <v>25</v>
+      </c>
+      <c r="E39">
+        <v>4</v>
+      </c>
+      <c r="F39" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="H39" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="I39" t="s">
+        <v>45</v>
+      </c>
+      <c r="J39" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="N39" s="14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>88</v>
+      </c>
+      <c r="B40" t="s">
+        <v>129</v>
+      </c>
+      <c r="C40" t="s">
+        <v>128</v>
+      </c>
+      <c r="D40" t="s">
+        <v>25</v>
+      </c>
+      <c r="E40">
+        <v>2</v>
+      </c>
+      <c r="F40" s="7">
+        <v>1.25</v>
+      </c>
+      <c r="H40" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="M40" s="15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>88</v>
+      </c>
+      <c r="B41" t="s">
+        <v>131</v>
+      </c>
+      <c r="C41" t="s">
+        <v>130</v>
+      </c>
+      <c r="D41" t="s">
+        <v>25</v>
+      </c>
+      <c r="E41">
+        <v>4</v>
+      </c>
+      <c r="F41" s="7">
+        <v>1</v>
+      </c>
+      <c r="G41" t="s">
+        <v>132</v>
+      </c>
+      <c r="H41" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="I41" t="s">
+        <v>45</v>
+      </c>
+      <c r="J41" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" s="12"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="13"/>
+      <c r="H42" s="19"/>
+      <c r="J42" s="14"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>88</v>
+      </c>
+      <c r="B43" t="s">
         <v>134</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C43" t="s">
         <v>133</v>
       </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
+      <c r="D43" t="s">
+        <v>25</v>
+      </c>
+      <c r="E43">
         <v>2</v>
       </c>
-      <c r="F37" s="7">
+      <c r="F43" s="7">
         <v>2.5</v>
       </c>
-      <c r="H37" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="K37" t="s">
-        <v>138</v>
-      </c>
-      <c r="L37" s="15" t="s">
+      <c r="H43" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="K43" t="s">
+        <v>137</v>
+      </c>
+      <c r="L43" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="M37" s="15" t="s">
+      <c r="M43" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="N37" s="14" t="s">
+      <c r="N43" s="14" t="s">
         <v>98</v>
       </c>
     </row>

--- a/partlist.xlsx
+++ b/partlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wip\ksp-mod-dev\WBIPlaymodeUSI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A27B05A-D47F-4386-A51E-1A40433BF271}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D1648E6-A44E-4BED-A09C-2BE1C1DD645F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="141">
   <si>
     <t>List of WBI parts and according USI configuration</t>
   </si>
@@ -439,6 +439,15 @@
   </si>
   <si>
     <t>50%/2</t>
+  </si>
+  <si>
+    <t>25%/4</t>
+  </si>
+  <si>
+    <t>D2HAB:Habitat</t>
+  </si>
+  <si>
+    <t>D2:HABClassroom</t>
   </si>
 </sst>
 </file>
@@ -884,10 +893,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O43"/>
+  <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1720,41 +1729,65 @@
       <c r="G27" t="s">
         <v>102</v>
       </c>
-      <c r="H27" s="19" t="s">
-        <v>92</v>
+      <c r="H27" s="16" t="s">
+        <v>64</v>
       </c>
       <c r="I27" t="s">
         <v>31</v>
       </c>
       <c r="J27" s="14"/>
-      <c r="K27" s="14" t="s">
-        <v>103</v>
+      <c r="K27" t="s">
+        <v>138</v>
       </c>
       <c r="N27" s="14" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="12"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="13"/>
-      <c r="H28" s="19"/>
-      <c r="J28" s="14"/>
+      <c r="A28" t="s">
+        <v>88</v>
+      </c>
+      <c r="B28" t="s">
+        <v>105</v>
+      </c>
+      <c r="C28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D28" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28">
+        <v>12</v>
+      </c>
+      <c r="F28" s="7">
+        <v>15</v>
+      </c>
+      <c r="G28" t="s">
+        <v>108</v>
+      </c>
+      <c r="H28" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="I28" t="s">
+        <v>45</v>
+      </c>
+      <c r="J28" s="15" t="s">
+        <v>107</v>
+      </c>
       <c r="K28" s="14"/>
-      <c r="N28" s="14"/>
+      <c r="N28" s="14" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>88</v>
       </c>
       <c r="B29" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C29" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D29" t="s">
         <v>25</v>
@@ -1763,10 +1796,7 @@
         <v>12</v>
       </c>
       <c r="F29" s="7">
-        <v>15</v>
-      </c>
-      <c r="G29" t="s">
-        <v>108</v>
+        <v>3.5</v>
       </c>
       <c r="H29" s="16" t="s">
         <v>64</v>
@@ -1775,111 +1805,116 @@
         <v>45</v>
       </c>
       <c r="J29" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="K29" s="14"/>
+        <v>111</v>
+      </c>
       <c r="N29" s="14" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="12"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="13"/>
-      <c r="H30" s="19"/>
+      <c r="A30" t="s">
+        <v>88</v>
+      </c>
+      <c r="B30" t="s">
+        <v>113</v>
+      </c>
+      <c r="C30" t="s">
+        <v>112</v>
+      </c>
+      <c r="D30" t="s">
+        <v>25</v>
+      </c>
+      <c r="E30">
+        <v>4</v>
+      </c>
+      <c r="F30" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="H30" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="I30" t="s">
+        <v>31</v>
+      </c>
       <c r="J30" s="14"/>
-      <c r="K30" s="14"/>
-      <c r="N30" s="14"/>
+      <c r="K30" t="s">
+        <v>103</v>
+      </c>
+      <c r="L30" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="M30" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="N30" s="14" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>88</v>
       </c>
       <c r="B31" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="C31" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="D31" t="s">
         <v>25</v>
       </c>
       <c r="E31">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F31" s="7">
         <v>3.5</v>
       </c>
+      <c r="G31" t="s">
+        <v>117</v>
+      </c>
       <c r="H31" s="16" t="s">
         <v>64</v>
       </c>
       <c r="I31" t="s">
         <v>45</v>
       </c>
-      <c r="J31" s="15" t="s">
-        <v>111</v>
-      </c>
       <c r="N31" s="14" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>88</v>
-      </c>
-      <c r="B32" t="s">
-        <v>113</v>
-      </c>
-      <c r="C32" t="s">
-        <v>112</v>
-      </c>
-      <c r="D32" t="s">
-        <v>25</v>
-      </c>
-      <c r="E32">
-        <v>4</v>
-      </c>
-      <c r="F32" s="7">
-        <v>3.5</v>
+      <c r="A32" s="12"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="13"/>
+      <c r="G32" t="s">
+        <v>139</v>
       </c>
       <c r="H32" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="I32" t="s">
-        <v>31</v>
-      </c>
-      <c r="J32" s="14"/>
-      <c r="K32" t="s">
-        <v>103</v>
-      </c>
-      <c r="L32" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="M32" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="N32" s="14" t="s">
-        <v>98</v>
-      </c>
+      <c r="J32" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="N32" s="14"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>88</v>
       </c>
       <c r="B33" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C33" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D33" t="s">
         <v>25</v>
       </c>
       <c r="E33">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F33" s="7">
         <v>3.5</v>
@@ -1887,15 +1922,13 @@
       <c r="G33" t="s">
         <v>117</v>
       </c>
-      <c r="H33" s="19" t="s">
-        <v>92</v>
+      <c r="H33" s="16" t="s">
+        <v>64</v>
       </c>
       <c r="I33" t="s">
         <v>45</v>
       </c>
-      <c r="J33" s="14" t="s">
-        <v>118</v>
-      </c>
+      <c r="J33" s="15"/>
       <c r="N33" s="14" t="s">
         <v>98</v>
       </c>
@@ -1907,8 +1940,15 @@
       <c r="D34" s="12"/>
       <c r="E34" s="12"/>
       <c r="F34" s="13"/>
-      <c r="H34" s="19"/>
-      <c r="J34" s="14"/>
+      <c r="G34" t="s">
+        <v>140</v>
+      </c>
+      <c r="H34" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="J34" s="15" t="s">
+        <v>121</v>
+      </c>
       <c r="N34" s="14"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
@@ -1916,31 +1956,28 @@
         <v>88</v>
       </c>
       <c r="B35" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C35" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D35" t="s">
         <v>25</v>
       </c>
       <c r="E35">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F35" s="7">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="G35" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="H35" s="19" t="s">
         <v>92</v>
       </c>
       <c r="I35" t="s">
-        <v>45</v>
-      </c>
-      <c r="J35" s="14" t="s">
-        <v>121</v>
+        <v>31</v>
       </c>
       <c r="N35" s="14" t="s">
         <v>98</v>
@@ -1954,7 +1991,6 @@
       <c r="E36" s="12"/>
       <c r="F36" s="13"/>
       <c r="H36" s="19"/>
-      <c r="J36" s="14"/>
       <c r="N36" s="14"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
@@ -1962,52 +1998,68 @@
         <v>88</v>
       </c>
       <c r="B37" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C37" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D37" t="s">
         <v>25</v>
       </c>
       <c r="E37">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F37" s="7">
-        <v>3.25</v>
-      </c>
-      <c r="G37" t="s">
-        <v>124</v>
-      </c>
-      <c r="H37" s="19" t="s">
-        <v>92</v>
+        <v>2.5</v>
+      </c>
+      <c r="H37" s="16" t="s">
+        <v>64</v>
       </c>
       <c r="I37" t="s">
-        <v>31</v>
+        <v>45</v>
+      </c>
+      <c r="J37" s="15" t="s">
+        <v>127</v>
       </c>
       <c r="N37" s="14" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="12"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="13"/>
-      <c r="H38" s="19"/>
-      <c r="N38" s="14"/>
+      <c r="A38" t="s">
+        <v>88</v>
+      </c>
+      <c r="B38" t="s">
+        <v>129</v>
+      </c>
+      <c r="C38" t="s">
+        <v>128</v>
+      </c>
+      <c r="D38" t="s">
+        <v>25</v>
+      </c>
+      <c r="E38">
+        <v>2</v>
+      </c>
+      <c r="F38" s="7">
+        <v>1.25</v>
+      </c>
+      <c r="H38" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="M38" s="15" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>88</v>
       </c>
       <c r="B39" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C39" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="D39" t="s">
         <v>25</v>
@@ -2016,121 +2068,63 @@
         <v>4</v>
       </c>
       <c r="F39" s="7">
-        <v>2.5</v>
-      </c>
-      <c r="H39" s="16" t="s">
-        <v>64</v>
+        <v>1</v>
+      </c>
+      <c r="G39" t="s">
+        <v>132</v>
+      </c>
+      <c r="H39" s="19" t="s">
+        <v>92</v>
       </c>
       <c r="I39" t="s">
         <v>45</v>
       </c>
-      <c r="J39" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="N39" s="14" t="s">
-        <v>98</v>
+      <c r="J39" s="14" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>88</v>
-      </c>
-      <c r="B40" t="s">
-        <v>129</v>
-      </c>
-      <c r="C40" t="s">
-        <v>128</v>
-      </c>
-      <c r="D40" t="s">
-        <v>25</v>
-      </c>
-      <c r="E40">
-        <v>2</v>
-      </c>
-      <c r="F40" s="7">
-        <v>1.25</v>
-      </c>
-      <c r="H40" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="M40" s="15" t="s">
-        <v>60</v>
-      </c>
+      <c r="A40" s="12"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="13"/>
+      <c r="H40" s="19"/>
+      <c r="J40" s="14"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>88</v>
       </c>
       <c r="B41" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C41" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D41" t="s">
         <v>25</v>
       </c>
       <c r="E41">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F41" s="7">
-        <v>1</v>
-      </c>
-      <c r="G41" t="s">
-        <v>132</v>
-      </c>
-      <c r="H41" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="I41" t="s">
-        <v>45</v>
-      </c>
-      <c r="J41" s="14" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="12"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="13"/>
-      <c r="H42" s="19"/>
-      <c r="J42" s="14"/>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>88</v>
-      </c>
-      <c r="B43" t="s">
-        <v>134</v>
-      </c>
-      <c r="C43" t="s">
-        <v>133</v>
-      </c>
-      <c r="D43" t="s">
-        <v>25</v>
-      </c>
-      <c r="E43">
-        <v>2</v>
-      </c>
-      <c r="F43" s="7">
         <v>2.5</v>
       </c>
-      <c r="H43" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="K43" t="s">
+      <c r="H41" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="K41" t="s">
         <v>137</v>
       </c>
-      <c r="L43" s="15" t="s">
+      <c r="L41" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="M43" s="15" t="s">
+      <c r="M41" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="N43" s="14" t="s">
+      <c r="N41" s="14" t="s">
         <v>98</v>
       </c>
     </row>

--- a/partlist.xlsx
+++ b/partlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wip\ksp-mod-dev\WBIPlaymodeUSI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D1648E6-A44E-4BED-A09C-2BE1C1DD645F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{155A5E16-91A6-42DA-BF01-0887FA3ED5BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -895,8 +895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/partlist.xlsx
+++ b/partlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wip\ksp-mod-dev\WBIPlaymodeUSI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{155A5E16-91A6-42DA-BF01-0887FA3ED5BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9B24451-9A15-4D6A-8F47-CF179C2021BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="146">
   <si>
     <t>List of WBI parts and according USI configuration</t>
   </si>
@@ -448,6 +448,21 @@
   </si>
   <si>
     <t>D2:HABClassroom</t>
+  </si>
+  <si>
+    <t>mk2 habitat</t>
+  </si>
+  <si>
+    <t>12m/4</t>
+  </si>
+  <si>
+    <t>agroponics</t>
+  </si>
+  <si>
+    <t>PATH_INDUSTRY:cropworks greenhouse</t>
+  </si>
+  <si>
+    <t>Pathfinder</t>
   </si>
 </sst>
 </file>
@@ -893,10 +908,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O41"/>
+  <dimension ref="A1:O49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1990,7 +2005,13 @@
       <c r="D36" s="12"/>
       <c r="E36" s="12"/>
       <c r="F36" s="13"/>
+      <c r="G36" t="s">
+        <v>144</v>
+      </c>
       <c r="H36" s="19"/>
+      <c r="L36" s="14" t="s">
+        <v>143</v>
+      </c>
       <c r="N36" s="14"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
@@ -2073,15 +2094,13 @@
       <c r="G39" t="s">
         <v>132</v>
       </c>
-      <c r="H39" s="19" t="s">
-        <v>92</v>
+      <c r="H39" s="16" t="s">
+        <v>64</v>
       </c>
       <c r="I39" t="s">
         <v>45</v>
       </c>
-      <c r="J39" s="14" t="s">
-        <v>99</v>
-      </c>
+      <c r="J39" s="14"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="12"/>
@@ -2090,8 +2109,15 @@
       <c r="D40" s="12"/>
       <c r="E40" s="12"/>
       <c r="F40" s="13"/>
-      <c r="H40" s="19"/>
-      <c r="J40" s="14"/>
+      <c r="G40" t="s">
+        <v>141</v>
+      </c>
+      <c r="H40" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="J40" s="15" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
@@ -2126,6 +2152,46 @@
       </c>
       <c r="N41" s="14" t="s">
         <v>98</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/partlist.xlsx
+++ b/partlist.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wip\ksp-mod-dev\WBIPlaymodeUSI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9B24451-9A15-4D6A-8F47-CF179C2021BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2234E837-8303-4D58-8106-1B1AC053A6BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Partlist" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="169">
   <si>
     <t>List of WBI parts and according USI configuration</t>
   </si>
@@ -463,6 +464,75 @@
   </si>
   <si>
     <t>Pathfinder</t>
+  </si>
+  <si>
+    <t>-template-</t>
+  </si>
+  <si>
+    <t>pigpen recycler</t>
+  </si>
+  <si>
+    <t>ponderosa hab</t>
+  </si>
+  <si>
+    <t>spyglass survey module</t>
+  </si>
+  <si>
+    <t>f0.25/1</t>
+  </si>
+  <si>
+    <t>PATH_HABITATION:Blacksmith</t>
+  </si>
+  <si>
+    <t>manufacturing</t>
+  </si>
+  <si>
+    <t>materiakits from ore -&gt;nerv!</t>
+  </si>
+  <si>
+    <t>PATH_INDUSTRY:Clockworks</t>
+  </si>
+  <si>
+    <t>PATH_INDUSTRY:Ironworks</t>
+  </si>
+  <si>
+    <t>lifesuport part</t>
+  </si>
+  <si>
+    <t>habitation pat</t>
+  </si>
+  <si>
+    <t>lifesupport (greenhouse)</t>
+  </si>
+  <si>
+    <t>ominconverter haber process</t>
+  </si>
+  <si>
+    <t>fertilizer from minerals</t>
+  </si>
+  <si>
+    <t>materialkits</t>
+  </si>
+  <si>
+    <t>metal</t>
+  </si>
+  <si>
+    <t>polymer</t>
+  </si>
+  <si>
+    <t>chemical</t>
+  </si>
+  <si>
+    <t>metallicore</t>
+  </si>
+  <si>
+    <t>substrate</t>
+  </si>
+  <si>
+    <t>chemicals</t>
+  </si>
+  <si>
+    <t>minerals</t>
   </si>
 </sst>
 </file>
@@ -598,7 +668,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2"/>
@@ -623,6 +693,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" quotePrefix="1"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="20% - Accent5" xfId="1" builtinId="46"/>
@@ -910,8 +981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="M48" sqref="M48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2158,44 +2229,243 @@
       <c r="A42" t="s">
         <v>145</v>
       </c>
+      <c r="B42" t="s">
+        <v>149</v>
+      </c>
+      <c r="H42" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="I42" t="s">
+        <v>45</v>
+      </c>
+      <c r="J42" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>145</v>
       </c>
+      <c r="B43" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="G43" t="s">
+        <v>144</v>
+      </c>
+      <c r="H43" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="I43" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>145</v>
       </c>
+      <c r="B44" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="G44" t="s">
+        <v>147</v>
+      </c>
+      <c r="H44" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="I44" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>145</v>
       </c>
+      <c r="B45" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="G45" t="s">
+        <v>148</v>
+      </c>
+      <c r="H45" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="I45" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>145</v>
       </c>
+      <c r="B46" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="G46" t="s">
+        <v>151</v>
+      </c>
+      <c r="H46" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="I46" t="s">
+        <v>152</v>
+      </c>
+      <c r="L46" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>145</v>
       </c>
+      <c r="B47" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="G47" t="s">
+        <v>154</v>
+      </c>
+      <c r="H47" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="I47" t="s">
+        <v>152</v>
+      </c>
+      <c r="L47" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B48" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="G48" t="s">
+        <v>155</v>
+      </c>
+      <c r="H48" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="I48" t="s">
+        <v>152</v>
+      </c>
+      <c r="L48" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>145</v>
+      </c>
+      <c r="B49" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="G49" t="s">
+        <v>159</v>
+      </c>
+      <c r="H49" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="I49" t="s">
+        <v>152</v>
+      </c>
+      <c r="L49" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DFC7464-D34D-48C9-9F97-FE2E6CA7A9E0}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2.5</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>163</v>
+      </c>
+      <c r="B7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>167</v>
+      </c>
+      <c r="B10" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/partlist.xlsx
+++ b/partlist.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wip\ksp-mod-dev\WBIPlaymodeUSI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2234E837-8303-4D58-8106-1B1AC053A6BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9D2BD19-42E3-44F9-B4AD-F3FD87B8C8B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Partlist" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="161">
   <si>
     <t>List of WBI parts and according USI configuration</t>
   </si>
@@ -457,9 +456,6 @@
     <t>12m/4</t>
   </si>
   <si>
-    <t>agroponics</t>
-  </si>
-  <si>
     <t>PATH_INDUSTRY:cropworks greenhouse</t>
   </si>
   <si>
@@ -478,24 +474,15 @@
     <t>spyglass survey module</t>
   </si>
   <si>
-    <t>f0.25/1</t>
-  </si>
-  <si>
     <t>PATH_HABITATION:Blacksmith</t>
   </si>
   <si>
     <t>manufacturing</t>
   </si>
   <si>
-    <t>materiakits from ore -&gt;nerv!</t>
-  </si>
-  <si>
     <t>PATH_INDUSTRY:Clockworks</t>
   </si>
   <si>
-    <t>PATH_INDUSTRY:Ironworks</t>
-  </si>
-  <si>
     <t>lifesuport part</t>
   </si>
   <si>
@@ -511,28 +498,16 @@
     <t>fertilizer from minerals</t>
   </si>
   <si>
-    <t>materialkits</t>
-  </si>
-  <si>
-    <t>metal</t>
-  </si>
-  <si>
-    <t>polymer</t>
-  </si>
-  <si>
-    <t>chemical</t>
-  </si>
-  <si>
-    <t>metallicore</t>
-  </si>
-  <si>
-    <t>substrate</t>
-  </si>
-  <si>
-    <t>chemicals</t>
-  </si>
-  <si>
-    <t>minerals</t>
+    <t>recipe materialkits like mks (metals, polymers, chemicals)</t>
+  </si>
+  <si>
+    <t>according to template (hab, greenhouse)</t>
+  </si>
+  <si>
+    <t>WBI_Spyglass</t>
+  </si>
+  <si>
+    <t>f0.15/1</t>
   </si>
 </sst>
 </file>
@@ -979,10 +954,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O49"/>
+  <dimension ref="A1:O47"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="M48" sqref="M48"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2062,59 +2037,69 @@
       <c r="H35" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="I35" t="s">
-        <v>31</v>
+      <c r="I35" s="14" t="s">
+        <v>158</v>
       </c>
       <c r="N35" s="14" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="12"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="13"/>
-      <c r="G36" t="s">
-        <v>144</v>
-      </c>
-      <c r="H36" s="19"/>
-      <c r="L36" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="N36" s="14"/>
+      <c r="A36" t="s">
+        <v>88</v>
+      </c>
+      <c r="B36" t="s">
+        <v>126</v>
+      </c>
+      <c r="C36" t="s">
+        <v>125</v>
+      </c>
+      <c r="D36" t="s">
+        <v>25</v>
+      </c>
+      <c r="E36">
+        <v>4</v>
+      </c>
+      <c r="F36" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="H36" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="I36" t="s">
+        <v>45</v>
+      </c>
+      <c r="J36" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="N36" s="14" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>88</v>
       </c>
       <c r="B37" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C37" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D37" t="s">
         <v>25</v>
       </c>
       <c r="E37">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F37" s="7">
-        <v>2.5</v>
+        <v>1.25</v>
       </c>
       <c r="H37" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="I37" t="s">
-        <v>45</v>
-      </c>
-      <c r="J37" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="N37" s="14" t="s">
-        <v>98</v>
+      <c r="M37" s="15" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
@@ -2122,149 +2107,170 @@
         <v>88</v>
       </c>
       <c r="B38" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C38" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D38" t="s">
         <v>25</v>
       </c>
       <c r="E38">
+        <v>4</v>
+      </c>
+      <c r="F38" s="7">
+        <v>1</v>
+      </c>
+      <c r="G38" t="s">
+        <v>132</v>
+      </c>
+      <c r="H38" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="I38" t="s">
+        <v>45</v>
+      </c>
+      <c r="J38" s="14"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" s="12"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="13"/>
+      <c r="G39" t="s">
+        <v>141</v>
+      </c>
+      <c r="H39" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="J39" s="15" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>88</v>
+      </c>
+      <c r="B40" t="s">
+        <v>134</v>
+      </c>
+      <c r="C40" t="s">
+        <v>133</v>
+      </c>
+      <c r="D40" t="s">
+        <v>25</v>
+      </c>
+      <c r="E40">
         <v>2</v>
       </c>
-      <c r="F38" s="7">
-        <v>1.25</v>
-      </c>
-      <c r="H38" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="M38" s="15" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>88</v>
-      </c>
-      <c r="B39" t="s">
-        <v>131</v>
-      </c>
-      <c r="C39" t="s">
-        <v>130</v>
-      </c>
-      <c r="D39" t="s">
-        <v>25</v>
-      </c>
-      <c r="E39">
-        <v>4</v>
-      </c>
-      <c r="F39" s="7">
-        <v>1</v>
-      </c>
-      <c r="G39" t="s">
-        <v>132</v>
-      </c>
-      <c r="H39" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="I39" t="s">
-        <v>45</v>
-      </c>
-      <c r="J39" s="14"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="12"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="13"/>
-      <c r="G40" t="s">
-        <v>141</v>
+      <c r="F40" s="7">
+        <v>2.5</v>
       </c>
       <c r="H40" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="J40" s="15" t="s">
-        <v>142</v>
+      <c r="K40" t="s">
+        <v>137</v>
+      </c>
+      <c r="L40" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="M40" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="N40" s="14" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>88</v>
+        <v>144</v>
       </c>
       <c r="B41" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="C41" t="s">
-        <v>133</v>
+        <v>159</v>
       </c>
       <c r="D41" t="s">
         <v>25</v>
       </c>
       <c r="E41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F41" s="7">
-        <v>2.5</v>
+        <v>0.1</v>
       </c>
       <c r="H41" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="K41" t="s">
-        <v>137</v>
-      </c>
-      <c r="L41" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="M41" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="N41" s="14" t="s">
-        <v>98</v>
+      <c r="I41" t="s">
+        <v>45</v>
+      </c>
+      <c r="J41" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>144</v>
+      </c>
+      <c r="B42" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="B42" t="s">
-        <v>149</v>
-      </c>
-      <c r="H42" s="19" t="s">
-        <v>92</v>
+      <c r="D42" t="s">
+        <v>25</v>
+      </c>
+      <c r="E42">
+        <v>2</v>
+      </c>
+      <c r="F42" s="7">
+        <v>5</v>
+      </c>
+      <c r="G42" t="s">
+        <v>143</v>
+      </c>
+      <c r="H42" s="16" t="s">
+        <v>64</v>
       </c>
       <c r="I42" t="s">
-        <v>45</v>
-      </c>
-      <c r="J42" t="s">
-        <v>150</v>
+        <v>154</v>
+      </c>
+      <c r="L42" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="M42" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="N42" s="14" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>144</v>
+      </c>
+      <c r="B43" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="B43" s="20" t="s">
+      <c r="G43" t="s">
         <v>146</v>
-      </c>
-      <c r="G43" t="s">
-        <v>144</v>
       </c>
       <c r="H43" s="19" t="s">
         <v>92</v>
       </c>
       <c r="I43" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>144</v>
+      </c>
+      <c r="B44" s="20" t="s">
         <v>145</v>
-      </c>
-      <c r="B44" s="20" t="s">
-        <v>146</v>
       </c>
       <c r="G44" t="s">
         <v>147</v>
@@ -2273,199 +2279,71 @@
         <v>92</v>
       </c>
       <c r="I44" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>144</v>
+      </c>
+      <c r="B45" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="B45" s="20" t="s">
-        <v>146</v>
-      </c>
       <c r="G45" t="s">
-        <v>148</v>
-      </c>
-      <c r="H45" s="19" t="s">
-        <v>92</v>
+        <v>149</v>
+      </c>
+      <c r="H45" s="16" t="s">
+        <v>64</v>
       </c>
       <c r="I45" t="s">
+        <v>150</v>
+      </c>
+      <c r="L45" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>144</v>
+      </c>
+      <c r="B46" s="20" t="s">
         <v>145</v>
-      </c>
-      <c r="B46" s="20" t="s">
-        <v>146</v>
       </c>
       <c r="G46" t="s">
         <v>151</v>
       </c>
-      <c r="H46" s="19" t="s">
-        <v>92</v>
+      <c r="H46" s="16" t="s">
+        <v>64</v>
       </c>
       <c r="I46" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="L46" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>144</v>
+      </c>
+      <c r="B47" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="B47" s="20" t="s">
-        <v>146</v>
-      </c>
       <c r="G47" t="s">
-        <v>154</v>
-      </c>
-      <c r="H47" s="19" t="s">
-        <v>92</v>
+        <v>155</v>
+      </c>
+      <c r="H47" s="16" t="s">
+        <v>64</v>
       </c>
       <c r="I47" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="L47" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>145</v>
-      </c>
-      <c r="B48" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="G48" t="s">
-        <v>155</v>
-      </c>
-      <c r="H48" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="I48" t="s">
-        <v>152</v>
-      </c>
-      <c r="L48" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>145</v>
-      </c>
-      <c r="B49" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="G49" t="s">
-        <v>159</v>
-      </c>
-      <c r="H49" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="I49" t="s">
-        <v>152</v>
-      </c>
-      <c r="L49" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DFC7464-D34D-48C9-9F97-FE2E6CA7A9E0}">
-  <dimension ref="A1:D11"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>2.5</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>162</v>
-      </c>
-      <c r="B4" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>163</v>
-      </c>
-      <c r="B7" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>167</v>
-      </c>
-      <c r="B10" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="B11">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/partlist.xlsx
+++ b/partlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wip\ksp-mod-dev\WBIPlaymodeUSI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9D2BD19-42E3-44F9-B4AD-F3FD87B8C8B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BDEFD44-D49D-42C7-8F91-D936F5FA06C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="167">
   <si>
     <t>List of WBI parts and according USI configuration</t>
   </si>
@@ -465,12 +465,6 @@
     <t>-template-</t>
   </si>
   <si>
-    <t>pigpen recycler</t>
-  </si>
-  <si>
-    <t>ponderosa hab</t>
-  </si>
-  <si>
     <t>spyglass survey module</t>
   </si>
   <si>
@@ -508,6 +502,30 @@
   </si>
   <si>
     <t>f0.15/1</t>
+  </si>
+  <si>
+    <t>GREENHOUSE:Prairie</t>
+  </si>
+  <si>
+    <t>efficiency part for MKS</t>
+  </si>
+  <si>
+    <t>used in: chuckwagon IMW</t>
+  </si>
+  <si>
+    <t>greenhouse efficiency</t>
+  </si>
+  <si>
+    <t>used in: casa ihm, moh18, bow, TranquilityHab, nautiluscentrifuge, d2centrifuge, HomesteadMk3, d2hab/office</t>
+  </si>
+  <si>
+    <t>PATH_HABITATION:pigpen recycler</t>
+  </si>
+  <si>
+    <t>PATH_HABITATION:ponderosa hab</t>
+  </si>
+  <si>
+    <t>used in: hacienda imf, bow, HomesteadMk3</t>
   </si>
 </sst>
 </file>
@@ -954,10 +972,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O47"/>
+  <dimension ref="A1:O48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H48" sqref="H48"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2038,7 +2056,7 @@
         <v>92</v>
       </c>
       <c r="I35" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="N35" s="14" t="s">
         <v>98</v>
@@ -2189,10 +2207,10 @@
         <v>144</v>
       </c>
       <c r="B41" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C41" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D41" t="s">
         <v>25</v>
@@ -2210,7 +2228,7 @@
         <v>45</v>
       </c>
       <c r="J41" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
@@ -2220,8 +2238,8 @@
       <c r="B42" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="D42" t="s">
-        <v>25</v>
+      <c r="C42" t="s">
+        <v>166</v>
       </c>
       <c r="E42">
         <v>2</v>
@@ -2236,7 +2254,7 @@
         <v>64</v>
       </c>
       <c r="I42" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="L42" s="15" t="s">
         <v>114</v>
@@ -2255,14 +2273,20 @@
       <c r="B43" s="20" t="s">
         <v>145</v>
       </c>
+      <c r="C43" t="s">
+        <v>166</v>
+      </c>
       <c r="G43" t="s">
-        <v>146</v>
-      </c>
-      <c r="H43" s="19" t="s">
-        <v>92</v>
+        <v>149</v>
+      </c>
+      <c r="H43" s="16" t="s">
+        <v>64</v>
       </c>
       <c r="I43" t="s">
-        <v>152</v>
+        <v>148</v>
+      </c>
+      <c r="L43" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
@@ -2272,14 +2296,20 @@
       <c r="B44" s="20" t="s">
         <v>145</v>
       </c>
+      <c r="C44" t="s">
+        <v>163</v>
+      </c>
+      <c r="F44" s="7">
+        <v>1.5</v>
+      </c>
       <c r="G44" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="H44" s="19" t="s">
         <v>92</v>
       </c>
       <c r="I44" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
@@ -2289,17 +2319,20 @@
       <c r="B45" s="20" t="s">
         <v>145</v>
       </c>
+      <c r="C45" t="s">
+        <v>163</v>
+      </c>
+      <c r="F45" s="7">
+        <v>1.5</v>
+      </c>
       <c r="G45" t="s">
-        <v>149</v>
-      </c>
-      <c r="H45" s="16" t="s">
-        <v>64</v>
+        <v>165</v>
+      </c>
+      <c r="H45" s="19" t="s">
+        <v>92</v>
       </c>
       <c r="I45" t="s">
-        <v>150</v>
-      </c>
-      <c r="L45" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
@@ -2309,17 +2342,20 @@
       <c r="B46" s="20" t="s">
         <v>145</v>
       </c>
+      <c r="C46" t="s">
+        <v>163</v>
+      </c>
       <c r="G46" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="H46" s="16" t="s">
         <v>64</v>
       </c>
       <c r="I46" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="L46" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
@@ -2330,16 +2366,39 @@
         <v>145</v>
       </c>
       <c r="G47" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H47" s="16" t="s">
         <v>64</v>
       </c>
       <c r="I47" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="L47" t="s">
-        <v>156</v>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>144</v>
+      </c>
+      <c r="B48" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="C48" t="s">
+        <v>161</v>
+      </c>
+      <c r="G48" t="s">
+        <v>159</v>
+      </c>
+      <c r="H48" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="I48" t="s">
+        <v>160</v>
+      </c>
+      <c r="L48" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/partlist.xlsx
+++ b/partlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wip\ksp-mod-dev\WBIPlaymodeUSI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BDEFD44-D49D-42C7-8F91-D936F5FA06C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E048865-7951-4F70-9DA2-62BB17B7FFD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="165">
   <si>
     <t>List of WBI parts and according USI configuration</t>
   </si>
@@ -123,9 +123,6 @@
     <t>module with add. LS</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
     <t>Supplies, Mulch</t>
   </si>
   <si>
@@ -192,9 +189,6 @@
     <t>MOH:Dolores hab</t>
   </si>
   <si>
-    <t>1m/6</t>
-  </si>
-  <si>
     <t>module without added LS</t>
   </si>
   <si>
@@ -321,12 +315,6 @@
     <t>Efficiency Part</t>
   </si>
   <si>
-    <t>x, tbd</t>
-  </si>
-  <si>
-    <t>tbd</t>
-  </si>
-  <si>
     <t>WBI_D2Lab</t>
   </si>
   <si>
@@ -513,9 +501,6 @@
     <t>used in: chuckwagon IMW</t>
   </si>
   <si>
-    <t>greenhouse efficiency</t>
-  </si>
-  <si>
     <t>used in: casa ihm, moh18, bow, TranquilityHab, nautiluscentrifuge, d2centrifuge, HomesteadMk3, d2hab/office</t>
   </si>
   <si>
@@ -526,6 +511,15 @@
   </si>
   <si>
     <t>used in: hacienda imf, bow, HomesteadMk3</t>
+  </si>
+  <si>
+    <t>Machinery, Recyclables</t>
+  </si>
+  <si>
+    <t>greenhouse 2.5</t>
+  </si>
+  <si>
+    <t>according to template (hab, ls, etc)</t>
   </si>
 </sst>
 </file>
@@ -974,16 +968,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.42578125" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" customWidth="1"/>
-    <col min="4" max="5" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="29.28515625" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
     <col min="6" max="6" width="12.7109375" style="7" customWidth="1"/>
     <col min="7" max="7" width="39.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.42578125" bestFit="1" customWidth="1"/>
@@ -1000,18 +995,18 @@
         <v>0</v>
       </c>
       <c r="J1" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="K1" s="17" t="s">
         <v>65</v>
-      </c>
-      <c r="K1" s="17" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J2" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="K2" s="18" t="s">
         <v>66</v>
-      </c>
-      <c r="K2" s="18" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -1058,7 +1053,7 @@
         <v>19</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>5</v>
@@ -1070,13 +1065,13 @@
         <v>7</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O4" s="1"/>
     </row>
@@ -1101,16 +1096,16 @@
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J5" s="10"/>
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
       <c r="M5" s="15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="N5" s="10"/>
       <c r="O5" s="10"/>
@@ -1120,10 +1115,10 @@
         <v>11</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>15</v>
@@ -1136,16 +1131,16 @@
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
       <c r="L6" s="10"/>
       <c r="M6" s="15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="N6" s="10"/>
       <c r="O6" s="10"/>
@@ -1173,10 +1168,10 @@
         <v>20</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
@@ -1206,10 +1201,10 @@
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
@@ -1241,14 +1236,14 @@
         <v>26</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J9" s="10"/>
       <c r="L9" s="15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
@@ -1259,7 +1254,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
@@ -1271,16 +1266,16 @@
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J10" s="10"/>
       <c r="K10" s="14"/>
       <c r="L10" s="10"/>
       <c r="M10" s="15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="N10" s="10"/>
       <c r="O10" s="10"/>
@@ -1290,10 +1285,10 @@
         <v>11</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>25</v>
@@ -1306,16 +1301,16 @@
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J11" s="10"/>
       <c r="K11" s="14"/>
       <c r="L11" s="10"/>
       <c r="M11" s="15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="N11" s="10"/>
       <c r="O11" s="10"/>
@@ -1343,33 +1338,31 @@
         <v>30</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I12" t="s">
         <v>31</v>
       </c>
       <c r="K12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M12" t="s">
-        <v>33</v>
-      </c>
-      <c r="N12" s="19" t="s">
-        <v>99</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="N12" s="10"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D13" t="s">
         <v>29</v>
@@ -1381,27 +1374,25 @@
         <v>1.375</v>
       </c>
       <c r="G13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I13" t="s">
-        <v>56</v>
-      </c>
-      <c r="N13" s="19" t="s">
-        <v>99</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="N13" s="10"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D14" t="s">
         <v>25</v>
@@ -1413,19 +1404,13 @@
         <v>4</v>
       </c>
       <c r="G14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="I14" t="s">
-        <v>31</v>
-      </c>
-      <c r="J14" t="s">
-        <v>55</v>
-      </c>
-      <c r="N14" s="19" t="s">
-        <v>99</v>
+        <v>62</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -1433,10 +1418,10 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15" t="s">
         <v>25</v>
@@ -1448,22 +1433,13 @@
         <v>1.375</v>
       </c>
       <c r="G15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H15" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="I15" t="s">
-        <v>45</v>
-      </c>
-      <c r="J15" t="s">
-        <v>32</v>
-      </c>
-      <c r="M15" t="s">
-        <v>33</v>
-      </c>
-      <c r="N15" s="19" t="s">
-        <v>99</v>
+        <v>62</v>
+      </c>
+      <c r="I15" s="15" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -1474,16 +1450,19 @@
       <c r="E16" s="12"/>
       <c r="F16" s="13"/>
       <c r="G16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
+      </c>
+      <c r="I16" t="s">
+        <v>44</v>
       </c>
       <c r="J16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -1491,10 +1470,10 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D17" t="s">
         <v>15</v>
@@ -1506,13 +1485,13 @@
         <v>0.6875</v>
       </c>
       <c r="H17" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -1520,10 +1499,10 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D18" t="s">
         <v>25</v>
@@ -1535,30 +1514,30 @@
         <v>1.25</v>
       </c>
       <c r="G18" t="s">
+        <v>47</v>
+      </c>
+      <c r="H18" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="I18" t="s">
         <v>48</v>
       </c>
-      <c r="H18" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="I18" t="s">
-        <v>49</v>
-      </c>
       <c r="K18" t="s">
+        <v>56</v>
+      </c>
+      <c r="M18" s="15" t="s">
         <v>58</v>
-      </c>
-      <c r="M18" s="15" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" t="s">
         <v>72</v>
       </c>
-      <c r="B19" t="s">
-        <v>74</v>
-      </c>
       <c r="C19" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D19" t="s">
         <v>25</v>
@@ -1570,24 +1549,24 @@
         <v>0.5</v>
       </c>
       <c r="H19" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="M19" s="15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D20" t="s">
         <v>25</v>
@@ -1599,24 +1578,24 @@
         <v>0.85</v>
       </c>
       <c r="H20" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J20" s="15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B21" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C21" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D21" t="s">
         <v>25</v>
@@ -1628,24 +1607,24 @@
         <v>0.8</v>
       </c>
       <c r="H21" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J21" s="15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B22" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D22" t="s">
         <v>25</v>
@@ -1657,24 +1636,24 @@
         <v>0.4</v>
       </c>
       <c r="H22" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J22" s="15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B23" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C23" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D23" t="s">
         <v>25</v>
@@ -1686,24 +1665,24 @@
         <v>0.75</v>
       </c>
       <c r="H23" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J23" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>86</v>
+      </c>
+      <c r="B24" t="s">
         <v>88</v>
       </c>
-      <c r="B24" t="s">
-        <v>90</v>
-      </c>
       <c r="C24" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D24" t="s">
         <v>25</v>
@@ -1715,24 +1694,24 @@
         <v>5</v>
       </c>
       <c r="G24" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H24" s="19" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L24" s="14" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B25" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C25" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D25" t="s">
         <v>25</v>
@@ -1744,21 +1723,21 @@
         <v>1.5</v>
       </c>
       <c r="H25" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="M25" s="15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B26" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C26" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D26" t="s">
         <v>25</v>
@@ -1770,31 +1749,29 @@
         <v>7.5</v>
       </c>
       <c r="G26" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="H26" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J26" s="15" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="K26" s="14"/>
-      <c r="N26" s="14" t="s">
-        <v>98</v>
-      </c>
+      <c r="N26" s="14"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B27" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C27" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D27" t="s">
         <v>29</v>
@@ -1806,31 +1783,29 @@
         <v>3.5</v>
       </c>
       <c r="G27" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H27" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I27" t="s">
         <v>31</v>
       </c>
       <c r="J27" s="14"/>
       <c r="K27" t="s">
-        <v>138</v>
-      </c>
-      <c r="N27" s="14" t="s">
-        <v>98</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="N27" s="14"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B28" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C28" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D28" t="s">
         <v>25</v>
@@ -1842,31 +1817,29 @@
         <v>15</v>
       </c>
       <c r="G28" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="H28" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J28" s="15" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="K28" s="14"/>
-      <c r="N28" s="14" t="s">
-        <v>98</v>
-      </c>
+      <c r="N28" s="14"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B29" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C29" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D29" t="s">
         <v>25</v>
@@ -1878,27 +1851,25 @@
         <v>3.5</v>
       </c>
       <c r="H29" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J29" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="N29" s="14" t="s">
-        <v>98</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="N29" s="14"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B30" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C30" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D30" t="s">
         <v>25</v>
@@ -1910,34 +1881,32 @@
         <v>3.5</v>
       </c>
       <c r="H30" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I30" t="s">
         <v>31</v>
       </c>
       <c r="J30" s="14"/>
       <c r="K30" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="L30" s="15" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="M30" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="N30" s="14" t="s">
-        <v>98</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="N30" s="14"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B31" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C31" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D31" t="s">
         <v>25</v>
@@ -1949,17 +1918,15 @@
         <v>3.5</v>
       </c>
       <c r="G31" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H31" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I31" t="s">
-        <v>45</v>
-      </c>
-      <c r="N31" s="14" t="s">
-        <v>98</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="N31" s="14"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="12"/>
@@ -1969,25 +1936,25 @@
       <c r="E32" s="12"/>
       <c r="F32" s="13"/>
       <c r="G32" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="H32" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J32" s="15" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="N32" s="14"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B33" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C33" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D33" t="s">
         <v>25</v>
@@ -1999,18 +1966,16 @@
         <v>3.5</v>
       </c>
       <c r="G33" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H33" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J33" s="15"/>
-      <c r="N33" s="14" t="s">
-        <v>98</v>
-      </c>
+      <c r="N33" s="14"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="12"/>
@@ -2020,25 +1985,25 @@
       <c r="E34" s="12"/>
       <c r="F34" s="13"/>
       <c r="G34" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H34" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J34" s="15" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="N34" s="14"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B35" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C35" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D35" t="s">
         <v>25</v>
@@ -2050,27 +2015,25 @@
         <v>3.25</v>
       </c>
       <c r="G35" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H35" s="19" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I35" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="N35" s="14" t="s">
-        <v>98</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="N35" s="14"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B36" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C36" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D36" t="s">
         <v>25</v>
@@ -2082,27 +2045,25 @@
         <v>2.5</v>
       </c>
       <c r="H36" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J36" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="N36" s="14" t="s">
-        <v>98</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="N36" s="14"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B37" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C37" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D37" t="s">
         <v>25</v>
@@ -2114,21 +2075,21 @@
         <v>1.25</v>
       </c>
       <c r="H37" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="M37" s="15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B38" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C38" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D38" t="s">
         <v>25</v>
@@ -2140,13 +2101,13 @@
         <v>1</v>
       </c>
       <c r="G38" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="H38" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J38" s="14"/>
     </row>
@@ -2158,24 +2119,24 @@
       <c r="E39" s="12"/>
       <c r="F39" s="13"/>
       <c r="G39" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="H39" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J39" s="15" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B40" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C40" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D40" t="s">
         <v>25</v>
@@ -2187,30 +2148,28 @@
         <v>2.5</v>
       </c>
       <c r="H40" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K40" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="L40" s="15" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="M40" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="N40" s="14" t="s">
-        <v>98</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="N40" s="14"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B41" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C41" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D41" t="s">
         <v>25</v>
@@ -2222,24 +2181,24 @@
         <v>0.1</v>
       </c>
       <c r="H41" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J41" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="C42" t="s">
-        <v>166</v>
+        <v>141</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>161</v>
       </c>
       <c r="E42">
         <v>2</v>
@@ -2248,157 +2207,164 @@
         <v>5</v>
       </c>
       <c r="G42" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H42" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I42" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="L42" s="15" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="M42" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="N42" s="14" t="s">
-        <v>98</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="N42" s="14"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>140</v>
+      </c>
+      <c r="B43" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="G43" t="s">
+        <v>145</v>
+      </c>
+      <c r="H43" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="I43" t="s">
         <v>144</v>
       </c>
-      <c r="B43" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="C43" t="s">
-        <v>166</v>
-      </c>
-      <c r="G43" t="s">
-        <v>149</v>
-      </c>
-      <c r="H43" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="I43" t="s">
-        <v>148</v>
-      </c>
       <c r="L43" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="C44" t="s">
-        <v>163</v>
+        <v>141</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>158</v>
       </c>
       <c r="F44" s="7">
         <v>1.5</v>
       </c>
       <c r="G44" t="s">
-        <v>164</v>
-      </c>
-      <c r="H44" s="19" t="s">
-        <v>92</v>
+        <v>159</v>
+      </c>
+      <c r="H44" s="16" t="s">
+        <v>62</v>
       </c>
       <c r="I44" t="s">
-        <v>150</v>
+        <v>146</v>
+      </c>
+      <c r="K44" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="C45" t="s">
-        <v>163</v>
+        <v>141</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>158</v>
       </c>
       <c r="F45" s="7">
         <v>1.5</v>
       </c>
       <c r="G45" t="s">
-        <v>165</v>
-      </c>
-      <c r="H45" s="19" t="s">
-        <v>92</v>
+        <v>160</v>
+      </c>
+      <c r="H45" s="16" t="s">
+        <v>62</v>
       </c>
       <c r="I45" t="s">
-        <v>151</v>
+        <v>147</v>
+      </c>
+      <c r="J45" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>140</v>
+      </c>
+      <c r="B46" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="G46" t="s">
+        <v>143</v>
+      </c>
+      <c r="H46" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="I46" t="s">
         <v>144</v>
       </c>
-      <c r="B46" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="C46" t="s">
-        <v>163</v>
-      </c>
-      <c r="G46" t="s">
-        <v>147</v>
-      </c>
-      <c r="H46" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="I46" t="s">
-        <v>148</v>
-      </c>
       <c r="L46" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>140</v>
+      </c>
+      <c r="B47" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="G47" t="s">
+        <v>149</v>
+      </c>
+      <c r="H47" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="I47" t="s">
         <v>144</v>
       </c>
-      <c r="B47" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="G47" t="s">
-        <v>153</v>
-      </c>
-      <c r="H47" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="I47" t="s">
-        <v>148</v>
-      </c>
       <c r="L47" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B48" s="20" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C48" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G48" t="s">
-        <v>159</v>
-      </c>
-      <c r="H48" s="19" t="s">
-        <v>92</v>
+        <v>155</v>
+      </c>
+      <c r="H48" s="16" t="s">
+        <v>62</v>
       </c>
       <c r="I48" t="s">
-        <v>160</v>
-      </c>
-      <c r="L48" t="s">
+        <v>156</v>
+      </c>
+      <c r="M48" t="s">
         <v>162</v>
+      </c>
+      <c r="N48" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>

--- a/partlist.xlsx
+++ b/partlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wip\ksp-mod-dev\WBIPlaymodeUSI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E048865-7951-4F70-9DA2-62BB17B7FFD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7597B3C5-0AE4-4449-A874-B5B6102D7BD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -968,8 +968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2017,10 +2017,10 @@
       <c r="G35" t="s">
         <v>120</v>
       </c>
-      <c r="H35" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="I35" s="14" t="s">
+      <c r="H35" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="I35" s="15" t="s">
         <v>152</v>
       </c>
       <c r="N35" s="14"/>
@@ -2197,7 +2197,7 @@
       <c r="B42" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="C42" s="14" t="s">
+      <c r="C42" s="15" t="s">
         <v>161</v>
       </c>
       <c r="E42">
@@ -2230,7 +2230,7 @@
       <c r="B43" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="C43" s="14" t="s">
+      <c r="C43" s="15" t="s">
         <v>161</v>
       </c>
       <c r="G43" t="s">
@@ -2253,7 +2253,7 @@
       <c r="B44" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="C44" s="14" t="s">
+      <c r="C44" s="15" t="s">
         <v>158</v>
       </c>
       <c r="F44" s="7">
@@ -2279,7 +2279,7 @@
       <c r="B45" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="C45" s="14" t="s">
+      <c r="C45" s="15" t="s">
         <v>158</v>
       </c>
       <c r="F45" s="7">
@@ -2305,7 +2305,7 @@
       <c r="B46" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="C46" s="14" t="s">
+      <c r="C46" s="15" t="s">
         <v>158</v>
       </c>
       <c r="G46" t="s">
@@ -2328,17 +2328,23 @@
       <c r="B47" s="20" t="s">
         <v>141</v>
       </c>
+      <c r="C47" t="s">
+        <v>157</v>
+      </c>
       <c r="G47" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="H47" s="16" t="s">
         <v>62</v>
       </c>
       <c r="I47" t="s">
-        <v>144</v>
-      </c>
-      <c r="L47" t="s">
-        <v>150</v>
+        <v>156</v>
+      </c>
+      <c r="M47" t="s">
+        <v>162</v>
+      </c>
+      <c r="N47" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
@@ -2348,23 +2354,17 @@
       <c r="B48" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="C48" t="s">
-        <v>157</v>
-      </c>
       <c r="G48" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="H48" s="16" t="s">
         <v>62</v>
       </c>
       <c r="I48" t="s">
-        <v>156</v>
-      </c>
-      <c r="M48" t="s">
-        <v>162</v>
-      </c>
-      <c r="N48" t="s">
-        <v>163</v>
+        <v>144</v>
+      </c>
+      <c r="L48" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/partlist.xlsx
+++ b/partlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wip\ksp-mod-dev\WBIPlaymodeUSI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7597B3C5-0AE4-4449-A874-B5B6102D7BD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A2EC586-10D7-49BD-A074-91840B02EDAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -969,7 +969,7 @@
   <dimension ref="A1:O48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1792,9 +1792,6 @@
         <v>31</v>
       </c>
       <c r="J27" s="14"/>
-      <c r="K27" t="s">
-        <v>134</v>
-      </c>
       <c r="N27" s="14"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -2215,6 +2212,9 @@
       <c r="I42" t="s">
         <v>148</v>
       </c>
+      <c r="K42" t="s">
+        <v>134</v>
+      </c>
       <c r="L42" s="15" t="s">
         <v>110</v>
       </c>

--- a/partlist.xlsx
+++ b/partlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wip\ksp-mod-dev\WBIPlaymodeUSI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A2EC586-10D7-49BD-A074-91840B02EDAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7891BA0C-D22F-44C5-B8B2-228CA944041E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -183,9 +183,6 @@
     <t>25%/2</t>
   </si>
   <si>
-    <t>4m/2</t>
-  </si>
-  <si>
     <t>MOH:Dolores hab</t>
   </si>
   <si>
@@ -520,6 +517,9 @@
   </si>
   <si>
     <t>according to template (hab, ls, etc)</t>
+  </si>
+  <si>
+    <t>12m/2</t>
   </si>
 </sst>
 </file>
@@ -969,7 +969,7 @@
   <dimension ref="A1:O48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -995,18 +995,18 @@
         <v>0</v>
       </c>
       <c r="J1" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K1" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J2" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K2" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -1053,7 +1053,7 @@
         <v>19</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>5</v>
@@ -1071,7 +1071,7 @@
         <v>8</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O4" s="1"/>
     </row>
@@ -1096,16 +1096,16 @@
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J5" s="10"/>
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
       <c r="M5" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N5" s="10"/>
       <c r="O5" s="10"/>
@@ -1115,10 +1115,10 @@
         <v>11</v>
       </c>
       <c r="B6" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>59</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>60</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>15</v>
@@ -1131,16 +1131,16 @@
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
       <c r="L6" s="10"/>
       <c r="M6" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N6" s="10"/>
       <c r="O6" s="10"/>
@@ -1168,10 +1168,10 @@
         <v>20</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
@@ -1201,10 +1201,10 @@
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
@@ -1236,14 +1236,14 @@
         <v>26</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J9" s="10"/>
       <c r="L9" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
@@ -1254,7 +1254,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
@@ -1266,16 +1266,16 @@
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J10" s="10"/>
       <c r="K10" s="14"/>
       <c r="L10" s="10"/>
       <c r="M10" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N10" s="10"/>
       <c r="O10" s="10"/>
@@ -1285,10 +1285,10 @@
         <v>11</v>
       </c>
       <c r="B11" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>68</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>69</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>25</v>
@@ -1301,16 +1301,16 @@
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J11" s="10"/>
       <c r="K11" s="14"/>
       <c r="L11" s="10"/>
       <c r="M11" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N11" s="10"/>
       <c r="O11" s="10"/>
@@ -1338,7 +1338,7 @@
         <v>30</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I12" t="s">
         <v>31</v>
@@ -1377,10 +1377,10 @@
         <v>35</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N13" s="10"/>
     </row>
@@ -1407,10 +1407,10 @@
         <v>38</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I14" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -1436,10 +1436,10 @@
         <v>43</v>
       </c>
       <c r="H15" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -1450,16 +1450,16 @@
       <c r="E16" s="12"/>
       <c r="F16" s="13"/>
       <c r="G16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I16" t="s">
         <v>44</v>
       </c>
       <c r="J16" t="s">
-        <v>52</v>
+        <v>164</v>
       </c>
       <c r="M16" t="s">
         <v>32</v>
@@ -1485,13 +1485,13 @@
         <v>0.6875</v>
       </c>
       <c r="H17" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I17" t="s">
         <v>44</v>
       </c>
       <c r="J17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -1517,27 +1517,27 @@
         <v>47</v>
       </c>
       <c r="H18" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I18" t="s">
         <v>48</v>
       </c>
       <c r="K18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M18" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" t="s">
         <v>70</v>
-      </c>
-      <c r="B19" t="s">
-        <v>72</v>
-      </c>
-      <c r="C19" t="s">
-        <v>71</v>
       </c>
       <c r="D19" t="s">
         <v>25</v>
@@ -1549,24 +1549,24 @@
         <v>0.5</v>
       </c>
       <c r="H19" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M19" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D20" t="s">
         <v>25</v>
@@ -1578,24 +1578,24 @@
         <v>0.85</v>
       </c>
       <c r="H20" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I20" t="s">
         <v>44</v>
       </c>
       <c r="J20" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D21" t="s">
         <v>25</v>
@@ -1607,24 +1607,24 @@
         <v>0.8</v>
       </c>
       <c r="H21" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I21" t="s">
         <v>44</v>
       </c>
       <c r="J21" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D22" t="s">
         <v>25</v>
@@ -1636,24 +1636,24 @@
         <v>0.4</v>
       </c>
       <c r="H22" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I22" t="s">
         <v>44</v>
       </c>
       <c r="J22" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D23" t="s">
         <v>25</v>
@@ -1665,24 +1665,24 @@
         <v>0.75</v>
       </c>
       <c r="H23" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I23" t="s">
         <v>44</v>
       </c>
       <c r="J23" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>85</v>
+      </c>
+      <c r="B24" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" t="s">
         <v>86</v>
-      </c>
-      <c r="B24" t="s">
-        <v>88</v>
-      </c>
-      <c r="C24" t="s">
-        <v>87</v>
       </c>
       <c r="D24" t="s">
         <v>25</v>
@@ -1694,24 +1694,24 @@
         <v>5</v>
       </c>
       <c r="G24" t="s">
+        <v>88</v>
+      </c>
+      <c r="H24" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="H24" s="19" t="s">
-        <v>90</v>
-      </c>
       <c r="L24" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C25" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D25" t="s">
         <v>25</v>
@@ -1723,21 +1723,21 @@
         <v>1.5</v>
       </c>
       <c r="H25" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M25" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D26" t="s">
         <v>25</v>
@@ -1749,29 +1749,29 @@
         <v>7.5</v>
       </c>
       <c r="G26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H26" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I26" t="s">
         <v>44</v>
       </c>
       <c r="J26" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K26" s="14"/>
       <c r="N26" s="14"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B27" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D27" t="s">
         <v>29</v>
@@ -1783,10 +1783,10 @@
         <v>3.5</v>
       </c>
       <c r="G27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H27" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I27" t="s">
         <v>31</v>
@@ -1796,13 +1796,13 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D28" t="s">
         <v>25</v>
@@ -1814,29 +1814,29 @@
         <v>15</v>
       </c>
       <c r="G28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H28" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I28" t="s">
         <v>44</v>
       </c>
       <c r="J28" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K28" s="14"/>
       <c r="N28" s="14"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B29" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C29" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D29" t="s">
         <v>25</v>
@@ -1848,25 +1848,25 @@
         <v>3.5</v>
       </c>
       <c r="H29" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I29" t="s">
         <v>44</v>
       </c>
       <c r="J29" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N29" s="14"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B30" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D30" t="s">
         <v>25</v>
@@ -1878,17 +1878,17 @@
         <v>3.5</v>
       </c>
       <c r="H30" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I30" t="s">
         <v>31</v>
       </c>
       <c r="J30" s="14"/>
       <c r="K30" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L30" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M30" s="15" t="s">
         <v>32</v>
@@ -1897,13 +1897,13 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B31" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D31" t="s">
         <v>25</v>
@@ -1915,10 +1915,10 @@
         <v>3.5</v>
       </c>
       <c r="G31" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H31" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I31" t="s">
         <v>44</v>
@@ -1933,25 +1933,25 @@
       <c r="E32" s="12"/>
       <c r="F32" s="13"/>
       <c r="G32" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H32" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J32" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N32" s="14"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B33" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C33" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D33" t="s">
         <v>25</v>
@@ -1963,10 +1963,10 @@
         <v>3.5</v>
       </c>
       <c r="G33" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H33" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I33" t="s">
         <v>44</v>
@@ -1982,25 +1982,25 @@
       <c r="E34" s="12"/>
       <c r="F34" s="13"/>
       <c r="G34" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H34" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J34" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N34" s="14"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B35" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C35" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D35" t="s">
         <v>25</v>
@@ -2012,25 +2012,25 @@
         <v>3.25</v>
       </c>
       <c r="G35" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H35" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I35" s="15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="N35" s="14"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B36" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C36" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D36" t="s">
         <v>25</v>
@@ -2042,25 +2042,25 @@
         <v>2.5</v>
       </c>
       <c r="H36" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I36" t="s">
         <v>44</v>
       </c>
       <c r="J36" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N36" s="14"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B37" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C37" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D37" t="s">
         <v>25</v>
@@ -2072,21 +2072,21 @@
         <v>1.25</v>
       </c>
       <c r="H37" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M37" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B38" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C38" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D38" t="s">
         <v>25</v>
@@ -2098,10 +2098,10 @@
         <v>1</v>
       </c>
       <c r="G38" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H38" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I38" t="s">
         <v>44</v>
@@ -2116,24 +2116,24 @@
       <c r="E39" s="12"/>
       <c r="F39" s="13"/>
       <c r="G39" t="s">
+        <v>136</v>
+      </c>
+      <c r="H39" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="J39" s="15" t="s">
         <v>137</v>
-      </c>
-      <c r="H39" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="J39" s="15" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B40" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C40" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D40" t="s">
         <v>25</v>
@@ -2145,13 +2145,13 @@
         <v>2.5</v>
       </c>
       <c r="H40" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K40" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L40" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M40" s="15" t="s">
         <v>32</v>
@@ -2160,13 +2160,13 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B41" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C41" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D41" t="s">
         <v>25</v>
@@ -2178,24 +2178,24 @@
         <v>0.1</v>
       </c>
       <c r="H41" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I41" t="s">
         <v>44</v>
       </c>
       <c r="J41" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>139</v>
+      </c>
+      <c r="B42" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="B42" s="20" t="s">
-        <v>141</v>
-      </c>
       <c r="C42" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E42">
         <v>2</v>
@@ -2204,19 +2204,19 @@
         <v>5</v>
       </c>
       <c r="G42" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H42" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I42" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K42" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L42" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M42" s="15" t="s">
         <v>32</v>
@@ -2225,146 +2225,146 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>139</v>
+      </c>
+      <c r="B43" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="B43" s="20" t="s">
-        <v>141</v>
-      </c>
       <c r="C43" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G43" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H43" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I43" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L43" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>139</v>
+      </c>
+      <c r="B44" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="B44" s="20" t="s">
-        <v>141</v>
-      </c>
       <c r="C44" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F44" s="7">
         <v>1.5</v>
       </c>
       <c r="G44" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H44" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I44" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K44" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>139</v>
+      </c>
+      <c r="B45" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="B45" s="20" t="s">
-        <v>141</v>
-      </c>
       <c r="C45" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F45" s="7">
         <v>1.5</v>
       </c>
       <c r="G45" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H45" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I45" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J45" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>139</v>
+      </c>
+      <c r="B46" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="B46" s="20" t="s">
-        <v>141</v>
-      </c>
       <c r="C46" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G46" t="s">
+        <v>142</v>
+      </c>
+      <c r="H46" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="I46" t="s">
         <v>143</v>
       </c>
-      <c r="H46" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="I46" t="s">
-        <v>144</v>
-      </c>
       <c r="L46" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>139</v>
+      </c>
+      <c r="B47" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="B47" s="20" t="s">
-        <v>141</v>
-      </c>
       <c r="C47" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G47" t="s">
+        <v>154</v>
+      </c>
+      <c r="H47" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="I47" t="s">
         <v>155</v>
       </c>
-      <c r="H47" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="I47" t="s">
-        <v>156</v>
-      </c>
       <c r="M47" t="s">
+        <v>161</v>
+      </c>
+      <c r="N47" t="s">
         <v>162</v>
-      </c>
-      <c r="N47" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>139</v>
+      </c>
+      <c r="B48" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="B48" s="20" t="s">
-        <v>141</v>
-      </c>
       <c r="G48" t="s">
+        <v>148</v>
+      </c>
+      <c r="H48" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="I48" t="s">
+        <v>143</v>
+      </c>
+      <c r="L48" t="s">
         <v>149</v>
-      </c>
-      <c r="H48" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="I48" t="s">
-        <v>144</v>
-      </c>
-      <c r="L48" t="s">
-        <v>150</v>
       </c>
     </row>
   </sheetData>
